--- a/else/Test/input/table.xlsx
+++ b/else/Test/input/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="768" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="768" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="6" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="281">
   <si>
     <t>索引</t>
   </si>
@@ -373,8 +373,10 @@
     <t>300</t>
   </si>
   <si>
-    <t>{基础魔抗:100,
-魔抗加成:1}</t>
+    <t>{
+基础魔抗:100,
+魔抗加成:1
+}</t>
   </si>
   <si>
     <t>"fly"</t>
@@ -534,30 +536,42 @@
     <t>"ReplaceableTextures\\CommandButtons\\BTNBreathOfFrost.blp"</t>
   </si>
   <si>
+    <t>"被动"</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>"abil_2"</t>
+  </si>
+  <si>
+    <t>"无目标"</t>
+  </si>
+  <si>
+    <t>"abil_3"</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>"abil_4"</t>
+  </si>
+  <si>
     <t>"点"</t>
   </si>
   <si>
-    <t>0</t>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>元素</t>
+  </si>
+  <si>
+    <t>"buff1"</t>
   </si>
   <si>
     <t>""</t>
   </si>
   <si>
-    <t>"敌人"</t>
-  </si>
-  <si>
-    <t>"abil_2"</t>
-  </si>
-  <si>
-    <t>冷却</t>
-  </si>
-  <si>
-    <t>元素</t>
-  </si>
-  <si>
-    <t>"buff1"</t>
-  </si>
-  <si>
     <t>品级</t>
   </si>
   <si>
@@ -574,9 +588,6 @@
   </si>
   <si>
     <t>"Item1"</t>
-  </si>
-  <si>
-    <t>"无目标"</t>
   </si>
   <si>
     <t>"消耗品"</t>
@@ -1314,12 +1325,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1922,7 +1933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2021,6 +2032,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2141,7 +2155,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2494,14 +2508,14 @@
   <cols>
     <col min="1" max="1" width="23.2222222222222" style="14" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="77"/>
+    <col min="3" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78" t="s">
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2533,34 +2547,34 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.8888888888889" style="31" customWidth="1"/>
     <col min="2" max="2" width="9.22222222222222" style="31" customWidth="1"/>
-    <col min="3" max="3" width="11.7777777777778" style="67" customWidth="1"/>
-    <col min="4" max="4" width="15.2222222222222" style="67" customWidth="1"/>
-    <col min="5" max="6" width="11.7777777777778" style="67" customWidth="1"/>
-    <col min="7" max="8" width="12.4444444444444" style="67" customWidth="1"/>
-    <col min="9" max="10" width="18.1111111111111" style="67" customWidth="1"/>
+    <col min="3" max="3" width="11.7777777777778" style="68" customWidth="1"/>
+    <col min="4" max="4" width="15.2222222222222" style="68" customWidth="1"/>
+    <col min="5" max="6" width="11.7777777777778" style="68" customWidth="1"/>
+    <col min="7" max="8" width="12.4444444444444" style="68" customWidth="1"/>
+    <col min="9" max="10" width="18.1111111111111" style="68" customWidth="1"/>
     <col min="11" max="11" width="12.8888888888889" style="31" customWidth="1"/>
     <col min="12" max="12" width="12.4444444444444" style="31" customWidth="1"/>
     <col min="13" max="13" width="18" style="31" customWidth="1"/>
-    <col min="14" max="14" width="34.1111111111111" style="67" customWidth="1"/>
+    <col min="14" max="14" width="34.1111111111111" style="68" customWidth="1"/>
     <col min="15" max="15" width="16.8888888888889" style="31" customWidth="1"/>
     <col min="16" max="16" width="12.4444444444444" style="31" customWidth="1"/>
     <col min="17" max="17" width="30.8796296296296" style="31" customWidth="1"/>
     <col min="18" max="21" width="12.4444444444444" style="31" customWidth="1"/>
     <col min="22" max="22" width="15.1111111111111" style="31" customWidth="1"/>
     <col min="23" max="23" width="12.4444444444444" style="31" customWidth="1"/>
-    <col min="24" max="24" width="9" style="68"/>
+    <col min="24" max="24" width="9" style="69"/>
     <col min="25" max="25" width="15.2222222222222" style="31" customWidth="1"/>
     <col min="26" max="26" width="11.7777777777778" style="31" customWidth="1"/>
     <col min="27" max="28" width="12.4444444444444" style="31" customWidth="1"/>
@@ -2568,7 +2582,7 @@
     <col min="30" max="30" width="12.4444444444444" style="31" customWidth="1"/>
     <col min="31" max="31" width="18.1111111111111" style="31" customWidth="1"/>
     <col min="32" max="32" width="13.1111111111111" style="31" customWidth="1"/>
-    <col min="33" max="35" width="9" style="68"/>
+    <col min="33" max="35" width="9" style="69"/>
     <col min="36" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
@@ -2612,7 +2626,7 @@
       <c r="M1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="68" t="s">
         <v>19</v>
       </c>
       <c r="O1" s="31" t="s">
@@ -2689,7 +2703,7 @@
       <c r="M2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="68" t="s">
         <v>35</v>
       </c>
       <c r="O2" s="31" t="s">
@@ -2724,1310 +2738,1310 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" s="64" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A3" s="64" t="s">
+    <row r="3" s="65" customFormat="1" customHeight="1" spans="1:23">
+      <c r="A3" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="64">
-        <v>1</v>
-      </c>
-      <c r="D3" s="64">
+      <c r="C3" s="65">
+        <v>1</v>
+      </c>
+      <c r="D3" s="65">
         <v>100</v>
       </c>
-      <c r="E3" s="64">
-        <v>1</v>
-      </c>
-      <c r="F3" s="64">
+      <c r="E3" s="65">
+        <v>1</v>
+      </c>
+      <c r="F3" s="65">
         <v>10</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="65">
         <v>150</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="65">
         <f>J3</f>
         <v>150</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="64">
+      <c r="M3" s="65">
         <v>100</v>
       </c>
-      <c r="N3" s="76" t="s">
+      <c r="N3" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="64">
-        <v>1</v>
-      </c>
-      <c r="P3" s="64" t="s">
+      <c r="O3" s="65">
+        <v>1</v>
+      </c>
+      <c r="P3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64" t="s">
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="64" t="s">
+      <c r="S3" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="64">
+      <c r="T3" s="65">
         <v>16</v>
       </c>
-      <c r="U3" s="64">
+      <c r="U3" s="65">
         <v>150</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64">
+      <c r="V3" s="65"/>
+      <c r="W3" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="4" s="31" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="65">
         <v>5000</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="65">
         <v>100</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="65">
         <v>10</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="65">
         <v>150</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="65">
         <f>J4</f>
         <v>150</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="64">
-        <v>0</v>
-      </c>
-      <c r="N4" s="76" t="s">
+      <c r="M4" s="65">
+        <v>0</v>
+      </c>
+      <c r="N4" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="64">
-        <v>1</v>
-      </c>
-      <c r="P4" s="64" t="s">
+      <c r="O4" s="65">
+        <v>1</v>
+      </c>
+      <c r="P4" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64" t="s">
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="64">
+      <c r="T4" s="65">
         <v>16</v>
       </c>
-      <c r="U4" s="64">
+      <c r="U4" s="65">
         <v>150</v>
       </c>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64">
+      <c r="V4" s="65"/>
+      <c r="W4" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="5" s="31" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="65">
         <v>10</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="65">
         <v>150</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="65">
         <f>J5</f>
         <v>150</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="M5" s="64">
-        <v>0</v>
-      </c>
-      <c r="N5" s="76" t="s">
+      <c r="M5" s="65">
+        <v>0</v>
+      </c>
+      <c r="N5" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="64">
-        <v>1</v>
-      </c>
-      <c r="P5" s="64" t="s">
+      <c r="O5" s="65">
+        <v>1</v>
+      </c>
+      <c r="P5" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64" t="s">
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="64">
+      <c r="T5" s="65">
         <v>16</v>
       </c>
-      <c r="U5" s="64">
+      <c r="U5" s="65">
         <v>150</v>
       </c>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64">
+      <c r="V5" s="65"/>
+      <c r="W5" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:23">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="65">
         <v>10</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="65">
         <v>150</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="65">
         <f>J6</f>
         <v>150</v>
       </c>
-      <c r="L6" s="64" t="s">
+      <c r="L6" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="64">
-        <v>0</v>
-      </c>
-      <c r="N6" s="76" t="s">
+      <c r="M6" s="65">
+        <v>0</v>
+      </c>
+      <c r="N6" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="64">
-        <v>1</v>
-      </c>
-      <c r="P6" s="64" t="s">
+      <c r="O6" s="65">
+        <v>1</v>
+      </c>
+      <c r="P6" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64" t="s">
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="S6" s="64" t="s">
+      <c r="S6" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="64">
+      <c r="T6" s="65">
         <v>16</v>
       </c>
-      <c r="U6" s="64">
+      <c r="U6" s="65">
         <v>150</v>
       </c>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64">
+      <c r="V6" s="65"/>
+      <c r="W6" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:23">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="65">
         <v>10</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="65">
         <v>700</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="65">
         <f>J7</f>
         <v>700</v>
       </c>
-      <c r="L7" s="64" t="s">
+      <c r="L7" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="64">
-        <v>0</v>
-      </c>
-      <c r="N7" s="76" t="s">
+      <c r="M7" s="65">
+        <v>0</v>
+      </c>
+      <c r="N7" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="64">
-        <v>1</v>
-      </c>
-      <c r="P7" s="64" t="s">
+      <c r="O7" s="65">
+        <v>1</v>
+      </c>
+      <c r="P7" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="64" t="s">
+      <c r="Q7" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="64" t="s">
+      <c r="R7" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="64" t="s">
+      <c r="S7" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="64">
+      <c r="T7" s="65">
         <v>16</v>
       </c>
-      <c r="U7" s="64">
+      <c r="U7" s="65">
         <v>150</v>
       </c>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="73"/>
-    </row>
-    <row r="9" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="73"/>
-    </row>
-    <row r="10" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="73"/>
-    </row>
-    <row r="11" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="73"/>
-    </row>
-    <row r="12" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="73"/>
-    </row>
-    <row r="13" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="73"/>
-    </row>
-    <row r="14" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="73"/>
-    </row>
-    <row r="15" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="73"/>
-    </row>
-    <row r="16" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="73"/>
-    </row>
-    <row r="17" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="73"/>
-    </row>
-    <row r="18" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="73"/>
-    </row>
-    <row r="19" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="73"/>
-    </row>
-    <row r="20" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="73"/>
-    </row>
-    <row r="21" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="73"/>
-    </row>
-    <row r="22" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="73"/>
-    </row>
-    <row r="23" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="73"/>
-    </row>
-    <row r="24" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="73"/>
-    </row>
-    <row r="25" s="66" customFormat="1" customHeight="1" spans="3:31">
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="65"/>
-    </row>
-    <row r="26" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="73"/>
-    </row>
-    <row r="27" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="73"/>
-    </row>
-    <row r="28" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="73"/>
-    </row>
-    <row r="29" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="73"/>
-    </row>
-    <row r="30" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="73"/>
-    </row>
-    <row r="31" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="73"/>
-    </row>
-    <row r="32" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="73"/>
-    </row>
-    <row r="33" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="73"/>
-    </row>
-    <row r="34" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="73"/>
-    </row>
-    <row r="35" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="73"/>
-    </row>
-    <row r="36" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="73"/>
-    </row>
-    <row r="37" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="73"/>
-    </row>
-    <row r="38" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="73"/>
-    </row>
-    <row r="39" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="73"/>
-    </row>
-    <row r="40" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="73"/>
-    </row>
-    <row r="41" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="73"/>
-    </row>
-    <row r="42" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="73"/>
-    </row>
-    <row r="43" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="73"/>
-    </row>
-    <row r="44" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="73"/>
-    </row>
-    <row r="45" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="73"/>
-    </row>
-    <row r="46" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="73"/>
-    </row>
-    <row r="47" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="73"/>
-    </row>
-    <row r="48" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="73"/>
-    </row>
-    <row r="49" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="73"/>
-    </row>
-    <row r="50" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="73"/>
-    </row>
-    <row r="51" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="73"/>
-    </row>
-    <row r="52" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="73"/>
-    </row>
-    <row r="53" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="73"/>
-    </row>
-    <row r="54" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="73"/>
-    </row>
-    <row r="55" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="73"/>
-    </row>
-    <row r="56" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="73"/>
-    </row>
-    <row r="57" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="73"/>
-    </row>
-    <row r="58" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="73"/>
-    </row>
-    <row r="59" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="73"/>
-    </row>
-    <row r="60" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="73"/>
-    </row>
-    <row r="61" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
-      <c r="N61" s="73"/>
-    </row>
-    <row r="62" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="73"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="73"/>
-    </row>
-    <row r="63" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-      <c r="M63" s="65"/>
-      <c r="N63" s="73"/>
-    </row>
-    <row r="64" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
-      <c r="M64" s="65"/>
-      <c r="N64" s="73"/>
-    </row>
-    <row r="65" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="65"/>
-      <c r="N65" s="73"/>
-    </row>
-    <row r="66" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="65"/>
-      <c r="M66" s="65"/>
-      <c r="N66" s="73"/>
-    </row>
-    <row r="67" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="73"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="73"/>
-    </row>
-    <row r="68" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="65"/>
-      <c r="N68" s="73"/>
-    </row>
-    <row r="69" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="65"/>
-      <c r="N69" s="73"/>
-    </row>
-    <row r="70" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
-      <c r="J70" s="73"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
-      <c r="M70" s="65"/>
-      <c r="N70" s="73"/>
-    </row>
-    <row r="71" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
-      <c r="J71" s="73"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
-      <c r="M71" s="65"/>
-      <c r="N71" s="73"/>
-    </row>
-    <row r="72" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="73"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="65"/>
-      <c r="N72" s="73"/>
-    </row>
-    <row r="73" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C73" s="73"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="65"/>
-      <c r="M73" s="65"/>
-      <c r="N73" s="73"/>
-    </row>
-    <row r="74" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C74" s="73"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="65"/>
-      <c r="L74" s="65"/>
-      <c r="M74" s="65"/>
-      <c r="N74" s="73"/>
-    </row>
-    <row r="75" s="65" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C75" s="73"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="65"/>
-      <c r="N75" s="73"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="74"/>
+    </row>
+    <row r="9" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="74"/>
+    </row>
+    <row r="10" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="74"/>
+    </row>
+    <row r="11" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="74"/>
+    </row>
+    <row r="12" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="74"/>
+    </row>
+    <row r="13" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="74"/>
+    </row>
+    <row r="14" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="74"/>
+    </row>
+    <row r="15" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="74"/>
+    </row>
+    <row r="16" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="74"/>
+    </row>
+    <row r="17" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="74"/>
+    </row>
+    <row r="18" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="74"/>
+    </row>
+    <row r="19" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="74"/>
+    </row>
+    <row r="20" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="74"/>
+    </row>
+    <row r="21" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="74"/>
+    </row>
+    <row r="22" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="74"/>
+    </row>
+    <row r="23" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="74"/>
+    </row>
+    <row r="24" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="74"/>
+    </row>
+    <row r="25" s="67" customFormat="1" customHeight="1" spans="3:31">
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="66"/>
+    </row>
+    <row r="26" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="74"/>
+    </row>
+    <row r="27" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="74"/>
+    </row>
+    <row r="28" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="74"/>
+    </row>
+    <row r="29" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="74"/>
+    </row>
+    <row r="30" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="74"/>
+    </row>
+    <row r="31" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="74"/>
+    </row>
+    <row r="32" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="74"/>
+    </row>
+    <row r="33" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="74"/>
+    </row>
+    <row r="34" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="74"/>
+    </row>
+    <row r="35" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="74"/>
+    </row>
+    <row r="36" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="74"/>
+    </row>
+    <row r="37" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="74"/>
+    </row>
+    <row r="38" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="74"/>
+    </row>
+    <row r="39" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="74"/>
+    </row>
+    <row r="40" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="74"/>
+    </row>
+    <row r="41" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="74"/>
+    </row>
+    <row r="42" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="74"/>
+    </row>
+    <row r="43" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="74"/>
+    </row>
+    <row r="44" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="74"/>
+    </row>
+    <row r="45" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="74"/>
+    </row>
+    <row r="46" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="74"/>
+    </row>
+    <row r="47" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="74"/>
+    </row>
+    <row r="48" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="74"/>
+    </row>
+    <row r="49" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="74"/>
+    </row>
+    <row r="50" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="74"/>
+    </row>
+    <row r="51" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="74"/>
+    </row>
+    <row r="52" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="74"/>
+    </row>
+    <row r="53" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="74"/>
+    </row>
+    <row r="54" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="74"/>
+    </row>
+    <row r="55" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="66"/>
+      <c r="N55" s="74"/>
+    </row>
+    <row r="56" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="66"/>
+      <c r="M56" s="66"/>
+      <c r="N56" s="74"/>
+    </row>
+    <row r="57" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="66"/>
+      <c r="M57" s="66"/>
+      <c r="N57" s="74"/>
+    </row>
+    <row r="58" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="74"/>
+    </row>
+    <row r="59" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="74"/>
+    </row>
+    <row r="60" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
+      <c r="M60" s="66"/>
+      <c r="N60" s="74"/>
+    </row>
+    <row r="61" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="74"/>
+    </row>
+    <row r="62" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="66"/>
+      <c r="M62" s="66"/>
+      <c r="N62" s="74"/>
+    </row>
+    <row r="63" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="66"/>
+      <c r="M63" s="66"/>
+      <c r="N63" s="74"/>
+    </row>
+    <row r="64" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="74"/>
+    </row>
+    <row r="65" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="74"/>
+    </row>
+    <row r="66" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="66"/>
+      <c r="L66" s="66"/>
+      <c r="M66" s="66"/>
+      <c r="N66" s="74"/>
+    </row>
+    <row r="67" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
+      <c r="M67" s="66"/>
+      <c r="N67" s="74"/>
+    </row>
+    <row r="68" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="74"/>
+    </row>
+    <row r="69" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
+      <c r="M69" s="66"/>
+      <c r="N69" s="74"/>
+    </row>
+    <row r="70" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="66"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="74"/>
+    </row>
+    <row r="71" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="74"/>
+    </row>
+    <row r="72" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="66"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="74"/>
+    </row>
+    <row r="73" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="74"/>
+    </row>
+    <row r="74" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="74"/>
+    </row>
+    <row r="75" s="66" customFormat="1" customHeight="1" spans="3:14">
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="66"/>
+      <c r="L75" s="66"/>
+      <c r="M75" s="66"/>
+      <c r="N75" s="74"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4050,597 +4064,593 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="17.8796296296296" style="50" customWidth="1"/>
-    <col min="2" max="2" width="32.6666666666667" style="51" customWidth="1"/>
-    <col min="3" max="5" width="12.4444444444444" style="50" customWidth="1"/>
-    <col min="6" max="7" width="11.7777777777778" style="50" customWidth="1"/>
-    <col min="8" max="8" width="9.55555555555556" style="50" customWidth="1"/>
-    <col min="9" max="10" width="12.4444444444444" style="50" customWidth="1"/>
-    <col min="11" max="11" width="25.6296296296296" style="50" customWidth="1"/>
-    <col min="12" max="12" width="18.1111111111111" style="50" customWidth="1"/>
-    <col min="13" max="13" width="9" style="50"/>
-    <col min="14" max="14" width="9" style="52"/>
-    <col min="15" max="16" width="9" style="50"/>
-    <col min="17" max="17" width="9" style="52"/>
-    <col min="18" max="16384" width="9" style="50"/>
+    <col min="1" max="1" width="17.8796296296296" style="51" customWidth="1"/>
+    <col min="2" max="2" width="32.6666666666667" style="52" customWidth="1"/>
+    <col min="3" max="5" width="12.4444444444444" style="51" customWidth="1"/>
+    <col min="6" max="7" width="11.7777777777778" style="51" customWidth="1"/>
+    <col min="8" max="8" width="9.55555555555556" style="51" customWidth="1"/>
+    <col min="9" max="10" width="12.4444444444444" style="51" customWidth="1"/>
+    <col min="11" max="11" width="25.6296296296296" style="51" customWidth="1"/>
+    <col min="12" max="12" width="18.1111111111111" style="51" customWidth="1"/>
+    <col min="13" max="13" width="9" style="51"/>
+    <col min="14" max="14" width="9" style="53"/>
+    <col min="15" max="16" width="9" style="51"/>
+    <col min="17" max="17" width="9" style="53"/>
+    <col min="18" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" ht="19.95" spans="1:17">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-    </row>
-    <row r="3" s="49" customFormat="1" ht="19.95" spans="1:17">
-      <c r="A3" s="54" t="s">
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+    </row>
+    <row r="3" s="50" customFormat="1" ht="19.95" spans="1:17">
+      <c r="A3" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="62"/>
+      <c r="N3" s="63"/>
+      <c r="Q3" s="63"/>
+    </row>
+    <row r="4" s="50" customFormat="1" ht="19.95" spans="1:17">
+      <c r="A4" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="63"/>
+    </row>
+    <row r="5" ht="19.95" spans="1:16">
+      <c r="A5" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="63"/>
+    </row>
+    <row r="6" ht="19.95" spans="1:16">
+      <c r="A6" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="61"/>
-      <c r="N3" s="62"/>
-      <c r="Q3" s="62"/>
-    </row>
-    <row r="4" s="49" customFormat="1" ht="19.95" spans="1:17">
-      <c r="A4" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="62"/>
-    </row>
-    <row r="5" ht="19.95" spans="1:16">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="62"/>
-    </row>
-    <row r="6" ht="19.95" spans="1:16">
-      <c r="A6" s="54"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="62"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="63"/>
     </row>
     <row r="7" ht="19.95" spans="1:16">
-      <c r="A7" s="54"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="62"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="63"/>
     </row>
     <row r="8" ht="19.95" spans="1:16">
-      <c r="A8" s="54"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="62"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="63"/>
     </row>
     <row r="9" ht="19.95" spans="1:17">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="60"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="61"/>
     </row>
     <row r="10" ht="19.95" spans="1:17">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="60"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="61"/>
     </row>
     <row r="11" ht="19.95" spans="1:16">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="63"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="64"/>
     </row>
     <row r="12" ht="19.95" spans="1:16">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="63"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="64"/>
     </row>
     <row r="13" ht="19.95" spans="1:16">
-      <c r="A13" s="57"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="63"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="64"/>
     </row>
     <row r="14" ht="19.95" spans="1:16">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="63"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="64"/>
     </row>
     <row r="15" ht="19.95" spans="1:16">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="63"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="64"/>
     </row>
     <row r="16" ht="19.95" spans="1:16">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="63"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="64"/>
     </row>
     <row r="17" ht="19.95" spans="1:16">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="63"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="64"/>
     </row>
     <row r="18" ht="19.95" spans="1:16">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="63"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="64"/>
     </row>
     <row r="19" ht="19.95" spans="1:16">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="63"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="64"/>
     </row>
     <row r="20" ht="19.95" spans="1:16">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="63"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="64"/>
     </row>
     <row r="21" ht="19.95" spans="1:16">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="63"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="64"/>
     </row>
     <row r="22" ht="19.95" spans="1:16">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="63"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="64"/>
     </row>
     <row r="23" ht="19.95" spans="1:16">
-      <c r="A23" s="57"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="63"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="64"/>
     </row>
     <row r="24" ht="19.95" spans="1:16">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="63"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="64"/>
     </row>
     <row r="25" ht="19.95" spans="1:16">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="63"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="64"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="57"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="63"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="64"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C5:C6 C7:C1048576">
       <formula1>"""被动"",""无目标"",""点"",""单位"""</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
@@ -4667,390 +4677,390 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="40" customWidth="1"/>
-    <col min="2" max="2" width="44.25" style="41" customWidth="1"/>
-    <col min="3" max="3" width="27" style="40" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="15.75" style="41" customWidth="1"/>
+    <col min="2" max="2" width="44.25" style="42" customWidth="1"/>
+    <col min="3" max="3" width="27" style="41" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="1" ht="16.35" spans="1:5">
-      <c r="A1" s="42" t="s">
+    <row r="1" s="40" customFormat="1" ht="16.35" spans="1:5">
+      <c r="A1" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="45" t="s">
+    <row r="2" ht="14.55" spans="1:5">
+      <c r="A2" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="40" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:5">
-      <c r="A3" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="48"/>
+      <c r="A3" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" ht="15.6" spans="2:5">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
       <c r="E4"/>
     </row>
     <row r="5" ht="15.6" spans="2:5">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
       <c r="E5"/>
     </row>
     <row r="6" ht="15.6" spans="2:5">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6"/>
     </row>
     <row r="7" ht="15.6" spans="2:5">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7"/>
     </row>
     <row r="8" ht="15.6" spans="2:5">
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8"/>
     </row>
     <row r="9" ht="15.6" spans="2:5">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9"/>
     </row>
     <row r="10" ht="15.6" spans="1:5">
-      <c r="A10" s="48"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10"/>
     </row>
     <row r="11" ht="15.6" spans="2:5">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11"/>
     </row>
     <row r="12" ht="15.6" spans="2:5">
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
       <c r="E12"/>
     </row>
     <row r="13" ht="15.6" spans="2:5">
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
       <c r="E13"/>
     </row>
     <row r="14" ht="15.6" spans="2:5">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
       <c r="E14"/>
     </row>
     <row r="15" ht="15.6" spans="2:4">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" ht="15.6" spans="2:4">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="17" ht="15.6" spans="2:4">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" ht="15.6" spans="2:4">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" ht="15.6" spans="2:4">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
     </row>
     <row r="20" ht="15.6" spans="2:4">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" ht="15.6" spans="2:4">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
     </row>
     <row r="22" ht="15.6" spans="1:4">
-      <c r="A22" s="48"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
     </row>
     <row r="23" ht="15.6" spans="2:4">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
     </row>
     <row r="24" ht="15.6" spans="2:4">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
     </row>
     <row r="25" ht="15.6" spans="2:4">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" ht="15.6" spans="2:4">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="27" ht="15.6" spans="2:4">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
     </row>
     <row r="28" ht="15.6" spans="2:4">
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
     </row>
     <row r="29" ht="15.6" spans="2:4">
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
     </row>
     <row r="30" ht="15.6" spans="2:4">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
     </row>
     <row r="31" ht="15.6" spans="2:4">
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
     </row>
     <row r="32" ht="15.6" spans="2:4">
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
     </row>
     <row r="33" ht="15.6" spans="2:4">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
     </row>
     <row r="34" ht="15.6" spans="2:4">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
     </row>
     <row r="35" ht="15.6" spans="2:4">
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
     </row>
     <row r="36" ht="15.6" spans="2:4">
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
     </row>
     <row r="37" ht="15.6" spans="1:4">
-      <c r="A37" s="48"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
     </row>
     <row r="38" ht="15.6" spans="1:4">
-      <c r="A38" s="48"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
     </row>
     <row r="39" ht="15.6" spans="2:4">
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
     </row>
     <row r="40" ht="15.6" spans="2:4">
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
     </row>
     <row r="41" ht="15.6" spans="2:4">
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
     </row>
     <row r="42" ht="15.6" spans="2:4">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-    </row>
-    <row r="43" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
-    </row>
-    <row r="44" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
-    </row>
-    <row r="45" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="48"/>
-    </row>
-    <row r="46" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="48"/>
-    </row>
-    <row r="47" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="48"/>
-    </row>
-    <row r="48" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
-    </row>
-    <row r="49" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
-    </row>
-    <row r="50" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
-    </row>
-    <row r="51" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="48"/>
-    </row>
-    <row r="52" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="48"/>
-    </row>
-    <row r="53" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="48"/>
-    </row>
-    <row r="54" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="48"/>
-    </row>
-    <row r="55" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
-    </row>
-    <row r="56" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="48"/>
-    </row>
-    <row r="57" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="48"/>
-    </row>
-    <row r="58" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="48"/>
-    </row>
-    <row r="59" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="48"/>
-    </row>
-    <row r="60" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="48"/>
-    </row>
-    <row r="61" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="48"/>
-    </row>
-    <row r="62" s="40" customFormat="1" ht="15.6" spans="2:5">
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+    </row>
+    <row r="43" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+    </row>
+    <row r="44" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
+    </row>
+    <row r="45" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+    </row>
+    <row r="46" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
+    </row>
+    <row r="47" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
+    </row>
+    <row r="48" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
+    </row>
+    <row r="49" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
+    </row>
+    <row r="50" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+    </row>
+    <row r="51" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="49"/>
+    </row>
+    <row r="52" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49"/>
+    </row>
+    <row r="53" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+    </row>
+    <row r="54" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="49"/>
+    </row>
+    <row r="55" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
+    </row>
+    <row r="56" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="49"/>
+    </row>
+    <row r="57" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="49"/>
+    </row>
+    <row r="58" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="49"/>
+    </row>
+    <row r="59" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="49"/>
+    </row>
+    <row r="60" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
+    </row>
+    <row r="61" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="49"/>
+    </row>
+    <row r="62" s="41" customFormat="1" ht="15.6" spans="2:5">
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="49"/>
     </row>
   </sheetData>
   <sortState ref="A4:D46">
@@ -5068,11 +5078,11 @@
   <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2"/>
@@ -5091,7 +5101,7 @@
     <col min="14" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.95" spans="1:13">
+    <row r="1" spans="1:13">
       <c r="A1" s="27" t="s">
         <v>70</v>
       </c>
@@ -5105,7 +5115,7 @@
         <v>74</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>80</v>
@@ -5114,21 +5124,21 @@
         <v>83</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>75</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="37" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5179,16 +5189,16 @@
         <f t="shared" si="0"/>
         <v>价格</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" s="20" customFormat="1" spans="1:13">
       <c r="A3" s="32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C3" s="32">
         <v>100</v>
@@ -5200,16 +5210,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J3" s="32">
         <v>0</v>
@@ -5223,11 +5233,11 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="32" t="s">
-        <v>114</v>
+      <c r="A4" s="34" t="s">
+        <v>117</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C4" s="32">
         <v>100</v>
@@ -5239,16 +5249,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J4" s="32">
         <v>0</v>
@@ -5263,10 +5273,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C5" s="32">
         <v>100</v>
@@ -5278,16 +5288,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J5" s="32">
         <v>0</v>
@@ -5302,10 +5312,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C6" s="32">
         <v>100</v>
@@ -5317,16 +5327,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J6" s="32">
         <v>0</v>
@@ -5341,10 +5351,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="32" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C7" s="32">
         <v>100</v>
@@ -5356,16 +5366,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J7" s="32">
         <v>0</v>
@@ -5380,10 +5390,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="32" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C8" s="32">
         <v>100</v>
@@ -5395,16 +5405,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J8" s="32">
         <v>0</v>
@@ -5419,10 +5429,10 @@
     </row>
     <row r="9" s="21" customFormat="1" spans="1:13">
       <c r="A9" s="32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C9" s="32">
         <v>100</v>
@@ -5434,16 +5444,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J9" s="32">
         <v>0</v>
@@ -5454,14 +5464,14 @@
       <c r="L9" s="32">
         <v>0</v>
       </c>
-      <c r="M9" s="37"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C10" s="32">
         <v>100</v>
@@ -5473,16 +5483,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" s="32">
         <v>0</v>
@@ -5497,10 +5507,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C11" s="32">
         <v>100</v>
@@ -5512,16 +5522,16 @@
         <v>1</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J11" s="32">
         <v>0</v>
@@ -5536,10 +5546,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C12" s="32">
         <v>100</v>
@@ -5551,16 +5561,16 @@
         <v>1</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J12" s="32">
         <v>0</v>
@@ -5575,10 +5585,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C13" s="32">
         <v>100</v>
@@ -5590,16 +5600,16 @@
         <v>2</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J13" s="32">
         <v>0</v>
@@ -5614,10 +5624,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C14" s="32">
         <v>100</v>
@@ -5629,16 +5639,16 @@
         <v>2</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J14" s="32">
         <v>0</v>
@@ -5653,10 +5663,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C15" s="32">
         <v>100</v>
@@ -5668,16 +5678,16 @@
         <v>2</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J15" s="32">
         <v>0</v>
@@ -5692,10 +5702,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C16" s="32">
         <v>100</v>
@@ -5707,16 +5717,16 @@
         <v>2</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J16" s="32">
         <v>0</v>
@@ -5731,10 +5741,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="32" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C17" s="32">
         <v>100</v>
@@ -5746,16 +5756,16 @@
         <v>2</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J17" s="32">
         <v>0</v>
@@ -5770,10 +5780,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="32" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C18" s="32">
         <v>100</v>
@@ -5785,16 +5795,16 @@
         <v>3</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J18" s="32">
         <v>0</v>
@@ -5809,10 +5819,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C19" s="32">
         <v>100</v>
@@ -5824,16 +5834,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J19" s="32">
         <v>0</v>
@@ -5848,10 +5858,10 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="32" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C20" s="32">
         <v>100</v>
@@ -5863,16 +5873,16 @@
         <v>3</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J20" s="32">
         <v>0</v>
@@ -5887,10 +5897,10 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C21" s="32">
         <v>100</v>
@@ -5902,16 +5912,16 @@
         <v>3</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J21" s="32">
         <v>0</v>
@@ -5926,10 +5936,10 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C22" s="32">
         <v>100</v>
@@ -5941,16 +5951,16 @@
         <v>3</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J22" s="32">
         <v>0</v>
@@ -5965,10 +5975,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C23" s="32">
         <v>100</v>
@@ -5980,16 +5990,16 @@
         <v>4</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J23" s="32">
         <v>0</v>
@@ -6004,10 +6014,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C24" s="32">
         <v>100</v>
@@ -6019,16 +6029,16 @@
         <v>4</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J24" s="32">
         <v>0</v>
@@ -6043,10 +6053,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C25" s="32">
         <v>100</v>
@@ -6058,16 +6068,16 @@
         <v>4</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J25" s="32">
         <v>0</v>
@@ -6082,10 +6092,10 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C26" s="32">
         <v>100</v>
@@ -6097,16 +6107,16 @@
         <v>4</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J26" s="32">
         <v>0</v>
@@ -6121,10 +6131,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C27" s="32">
         <v>100</v>
@@ -6136,16 +6146,16 @@
         <v>4</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J27" s="32">
         <v>0</v>
@@ -6160,10 +6170,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C28" s="32">
         <v>100</v>
@@ -6175,16 +6185,16 @@
         <v>5</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J28" s="32">
         <v>0</v>
@@ -6199,10 +6209,10 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C29" s="32">
         <v>100</v>
@@ -6214,16 +6224,16 @@
         <v>5</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J29" s="32">
         <v>0</v>
@@ -6238,10 +6248,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="32" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C30" s="32">
         <v>100</v>
@@ -6253,16 +6263,16 @@
         <v>5</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J30" s="32">
         <v>0</v>
@@ -6277,10 +6287,10 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="32" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C31" s="32">
         <v>100</v>
@@ -6292,16 +6302,16 @@
         <v>5</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J31" s="32">
         <v>0</v>
@@ -6316,10 +6326,10 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C32" s="32">
         <v>100</v>
@@ -6331,16 +6341,16 @@
         <v>5</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J32" s="32">
         <v>0</v>
@@ -6355,10 +6365,10 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C33" s="32">
         <v>100</v>
@@ -6370,16 +6380,16 @@
         <v>5</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J33" s="32">
         <v>0</v>
@@ -6394,10 +6404,10 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="32" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C34" s="32">
         <v>100</v>
@@ -6409,16 +6419,16 @@
         <v>5</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J34" s="32">
         <v>0</v>
@@ -6432,685 +6442,685 @@
       <c r="M34" s="30"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="29"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="29"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
       <c r="G37" s="29"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
       <c r="G38" s="29"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
       <c r="G39" s="29"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
       <c r="G40" s="29"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="34"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="29"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
       <c r="G44" s="29"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="34"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
       <c r="G45" s="29"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="29"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="29"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
       <c r="G48" s="29"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
       <c r="G49" s="29"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
       <c r="G50" s="29"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
       <c r="G51" s="29"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
       <c r="G52" s="29"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="29"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
       <c r="G55" s="29"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
       <c r="G56" s="29"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
       <c r="G57" s="29"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
       <c r="G58" s="29"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
       <c r="G59" s="29"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
       <c r="G60" s="29"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
       <c r="G62" s="29"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
       <c r="G63" s="29"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
       <c r="G64" s="29"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
       <c r="G67" s="29"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
       <c r="G68" s="29"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
       <c r="G69" s="29"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
       <c r="G70" s="29"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
       <c r="G71" s="29"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
       <c r="G72" s="29"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
       <c r="G74" s="29"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
       <c r="G75" s="29"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
       <c r="G76" s="29"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
       <c r="G77" s="29"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
       <c r="G78" s="29"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
       <c r="G79" s="29"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="35"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -7160,34 +7170,34 @@
   <sheetData>
     <row r="1" s="9" customFormat="1" ht="17.4" spans="1:10">
       <c r="A1" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="17.4" spans="1:10">
@@ -7234,28 +7244,28 @@
     </row>
     <row r="3" ht="17.4" spans="1:10">
       <c r="A3" s="15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D3" s="15">
         <v>1</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F3" s="15">
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I3" s="15">
         <v>1</v>
@@ -7266,28 +7276,28 @@
     </row>
     <row r="4" ht="17.4" spans="1:13">
       <c r="A4" s="15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>157</v>
-      </c>
       <c r="H4" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I4" s="15">
         <v>1</v>
@@ -7301,28 +7311,28 @@
     </row>
     <row r="5" ht="17.4" spans="1:10">
       <c r="A5" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>158</v>
       </c>
       <c r="I5" s="15">
         <v>1</v>
@@ -7333,28 +7343,28 @@
     </row>
     <row r="6" ht="17.4" spans="1:10">
       <c r="A6" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D6" s="15">
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F6" s="15">
         <v>0</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I6" s="15">
         <v>1</v>
@@ -7365,28 +7375,28 @@
     </row>
     <row r="7" ht="17.4" spans="1:10">
       <c r="A7" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F7" s="15">
         <v>0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I7" s="15">
         <v>1</v>
@@ -7397,28 +7407,28 @@
     </row>
     <row r="8" ht="17.4" spans="1:10">
       <c r="A8" s="15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D8" s="15">
         <v>1</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F8" s="15">
         <v>0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I8" s="15">
         <v>1</v>
@@ -7429,28 +7439,28 @@
     </row>
     <row r="9" ht="17.4" spans="1:10">
       <c r="A9" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F9" s="15">
         <v>0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I9" s="15">
         <v>1</v>
@@ -7461,28 +7471,28 @@
     </row>
     <row r="10" ht="17.4" spans="1:10">
       <c r="A10" s="15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I10" s="15">
         <v>1</v>
@@ -7493,28 +7503,28 @@
     </row>
     <row r="11" ht="17.4" spans="1:10">
       <c r="A11" s="15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F11" s="15">
         <v>0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I11" s="15">
         <v>1</v>
@@ -7525,28 +7535,28 @@
     </row>
     <row r="12" ht="17.4" spans="1:10">
       <c r="A12" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D12" s="15">
         <v>1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F12" s="15">
         <v>0</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I12" s="15">
         <v>1</v>
@@ -7557,28 +7567,28 @@
     </row>
     <row r="13" ht="17.4" spans="1:10">
       <c r="A13" s="15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D13" s="15">
         <v>1</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F13" s="15">
         <v>0</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I13" s="15">
         <v>1</v>
@@ -7589,28 +7599,28 @@
     </row>
     <row r="14" ht="17.4" spans="1:10">
       <c r="A14" s="15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D14" s="15">
         <v>1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F14" s="15">
         <v>0</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I14" s="15">
         <v>1</v>
@@ -7621,28 +7631,28 @@
     </row>
     <row r="15" ht="17.4" spans="1:10">
       <c r="A15" s="15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F15" s="15">
         <v>0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I15" s="15">
         <v>1</v>
@@ -7653,28 +7663,28 @@
     </row>
     <row r="16" ht="17.4" spans="1:10">
       <c r="A16" s="15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D16" s="15">
         <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I16" s="15">
         <v>1</v>
@@ -7685,28 +7695,28 @@
     </row>
     <row r="17" ht="17.4" spans="1:10">
       <c r="A17" s="15" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F17" s="15">
         <v>0</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I17" s="15">
         <v>1</v>
@@ -7717,28 +7727,28 @@
     </row>
     <row r="18" ht="17.4" spans="1:10">
       <c r="A18" s="15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D18" s="15">
         <v>1</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F18" s="15">
         <v>0</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I18" s="15">
         <v>1</v>
@@ -7749,28 +7759,28 @@
     </row>
     <row r="19" ht="17.4" spans="1:10">
       <c r="A19" s="15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F19" s="15">
         <v>0</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I19" s="15">
         <v>1</v>
@@ -7781,28 +7791,28 @@
     </row>
     <row r="20" ht="17.4" spans="1:10">
       <c r="A20" s="15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D20" s="15">
         <v>1</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F20" s="15">
         <v>0</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I20" s="15">
         <v>1</v>
@@ -7813,28 +7823,28 @@
     </row>
     <row r="21" ht="17.4" spans="1:10">
       <c r="A21" s="15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F21" s="15">
         <v>0</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I21" s="15">
         <v>1</v>
@@ -7845,28 +7855,28 @@
     </row>
     <row r="22" ht="17.4" spans="1:10">
       <c r="A22" s="15" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D22" s="15">
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F22" s="15">
         <v>0</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I22" s="15">
         <v>1</v>
@@ -7877,28 +7887,28 @@
     </row>
     <row r="23" ht="17.4" spans="1:10">
       <c r="A23" s="15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D23" s="15">
         <v>1</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F23" s="15">
         <v>0</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I23" s="15">
         <v>1</v>
@@ -7909,28 +7919,28 @@
     </row>
     <row r="24" ht="17.4" spans="1:10">
       <c r="A24" s="15" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D24" s="15">
         <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F24" s="15">
         <v>0</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I24" s="15">
         <v>1</v>
@@ -7941,28 +7951,28 @@
     </row>
     <row r="25" ht="17.4" spans="1:10">
       <c r="A25" s="15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D25" s="15">
         <v>1</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F25" s="15">
         <v>0</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I25" s="15">
         <v>1</v>
@@ -7973,28 +7983,28 @@
     </row>
     <row r="26" ht="17.4" spans="1:10">
       <c r="A26" s="15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D26" s="15">
         <v>1</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F26" s="15">
         <v>0</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I26" s="15">
         <v>1</v>
@@ -8005,28 +8015,28 @@
     </row>
     <row r="27" ht="17.4" spans="1:10">
       <c r="A27" s="15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D27" s="15">
         <v>1</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F27" s="15">
         <v>0</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I27" s="15">
         <v>1</v>
@@ -8037,28 +8047,28 @@
     </row>
     <row r="28" ht="17.4" spans="1:10">
       <c r="A28" s="15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D28" s="15">
         <v>1</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F28" s="15">
         <v>0</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I28" s="15">
         <v>1</v>
@@ -8069,28 +8079,28 @@
     </row>
     <row r="29" ht="17.4" spans="1:10">
       <c r="A29" s="15" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D29" s="15">
         <v>1</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F29" s="15">
         <v>0</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I29" s="15">
         <v>1</v>
@@ -8101,28 +8111,28 @@
     </row>
     <row r="30" ht="17.4" spans="1:10">
       <c r="A30" s="15" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D30" s="15">
         <v>1</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F30" s="15">
         <v>0</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I30" s="15">
         <v>1</v>
@@ -8133,28 +8143,28 @@
     </row>
     <row r="31" ht="17.4" spans="1:10">
       <c r="A31" s="15" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D31" s="15">
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F31" s="15">
         <v>0</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I31" s="15">
         <v>1</v>
@@ -8165,28 +8175,28 @@
     </row>
     <row r="32" ht="17.4" spans="1:10">
       <c r="A32" s="15" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D32" s="15">
         <v>1</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F32" s="15">
         <v>0</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I32" s="15">
         <v>1</v>
@@ -8197,28 +8207,28 @@
     </row>
     <row r="33" ht="17.4" spans="1:10">
       <c r="A33" s="15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F33" s="15">
         <v>0</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I33" s="15">
         <v>1</v>
@@ -8229,28 +8239,28 @@
     </row>
     <row r="34" ht="17.4" spans="1:10">
       <c r="A34" s="15" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D34" s="15">
         <v>1</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F34" s="15">
         <v>0</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I34" s="15">
         <v>1</v>
@@ -8261,28 +8271,28 @@
     </row>
     <row r="35" ht="17.4" spans="1:10">
       <c r="A35" s="15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D35" s="15">
         <v>1</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I35" s="15">
         <v>1</v>
@@ -8293,28 +8303,28 @@
     </row>
     <row r="36" ht="17.4" spans="1:10">
       <c r="A36" s="15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D36" s="15">
         <v>1</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F36" s="15">
         <v>0</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I36" s="15">
         <v>1</v>
@@ -8325,28 +8335,28 @@
     </row>
     <row r="37" ht="17.4" spans="1:10">
       <c r="A37" s="15" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F37" s="15">
         <v>0</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I37" s="15">
         <v>1</v>
@@ -8357,28 +8367,28 @@
     </row>
     <row r="38" ht="17.4" spans="1:10">
       <c r="A38" s="15" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D38" s="15">
         <v>1</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F38" s="15">
         <v>0</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I38" s="15">
         <v>1</v>
@@ -8389,28 +8399,28 @@
     </row>
     <row r="39" ht="17.4" spans="1:10">
       <c r="A39" s="15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D39" s="15">
         <v>1</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F39" s="15">
         <v>0</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I39" s="15">
         <v>1</v>
@@ -8421,28 +8431,28 @@
     </row>
     <row r="40" ht="17.4" spans="1:10">
       <c r="A40" s="15" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D40" s="15">
         <v>1</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F40" s="15">
         <v>0</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I40" s="15">
         <v>1</v>
@@ -8453,28 +8463,28 @@
     </row>
     <row r="41" ht="17.4" spans="1:10">
       <c r="A41" s="15" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D41" s="15">
         <v>1</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F41" s="15">
         <v>0</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I41" s="15">
         <v>1</v>
@@ -8485,28 +8495,28 @@
     </row>
     <row r="42" ht="17.4" spans="1:10">
       <c r="A42" s="15" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D42" s="15">
         <v>1</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F42" s="15">
         <v>0</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I42" s="15">
         <v>1</v>
@@ -8517,28 +8527,28 @@
     </row>
     <row r="43" ht="17.4" spans="1:10">
       <c r="A43" s="15" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D43" s="15">
         <v>1</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F43" s="15">
         <v>0</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I43" s="15">
         <v>1</v>
@@ -8549,28 +8559,28 @@
     </row>
     <row r="44" ht="17.4" spans="1:10">
       <c r="A44" s="15" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D44" s="15">
         <v>1</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F44" s="15">
         <v>0</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I44" s="15">
         <v>1</v>
@@ -8581,28 +8591,28 @@
     </row>
     <row r="45" ht="17.4" spans="1:10">
       <c r="A45" s="15" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D45" s="15">
         <v>1</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F45" s="15">
         <v>0</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I45" s="15">
         <v>1</v>
@@ -8613,28 +8623,28 @@
     </row>
     <row r="46" ht="17.4" spans="1:10">
       <c r="A46" s="15" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D46" s="15">
         <v>1</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F46" s="15">
         <v>0</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I46" s="15">
         <v>1</v>
@@ -8645,28 +8655,28 @@
     </row>
     <row r="47" ht="17.4" spans="1:10">
       <c r="A47" s="15" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D47" s="15">
         <v>1</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F47" s="15">
         <v>0</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I47" s="15">
         <v>1</v>
@@ -8677,28 +8687,28 @@
     </row>
     <row r="48" ht="17.4" spans="1:10">
       <c r="A48" s="15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D48" s="15">
         <v>1</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F48" s="15">
         <v>0</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I48" s="15">
         <v>1</v>
@@ -8709,28 +8719,28 @@
     </row>
     <row r="49" ht="17.4" spans="1:10">
       <c r="A49" s="15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D49" s="15">
         <v>1</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F49" s="15">
         <v>0</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I49" s="15">
         <v>1</v>
@@ -8741,28 +8751,28 @@
     </row>
     <row r="50" ht="17.4" spans="1:10">
       <c r="A50" s="15" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D50" s="15">
         <v>1</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F50" s="15">
         <v>0</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I50" s="15">
         <v>1</v>
@@ -8773,28 +8783,28 @@
     </row>
     <row r="51" ht="17.4" spans="1:10">
       <c r="A51" s="15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D51" s="15">
         <v>1</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F51" s="15">
         <v>0</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I51" s="15">
         <v>1</v>
@@ -8805,28 +8815,28 @@
     </row>
     <row r="52" ht="17.4" spans="1:10">
       <c r="A52" s="15" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="15">
         <v>1</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F52" s="15">
         <v>0</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I52" s="15">
         <v>1</v>
@@ -8837,28 +8847,28 @@
     </row>
     <row r="53" ht="17.4" spans="1:10">
       <c r="A53" s="15" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="15">
         <v>1</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F53" s="15">
         <v>0</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I53" s="15">
         <v>1</v>
@@ -8898,13 +8908,13 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -8923,57 +8933,57 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/else/Test/input/table.xlsx
+++ b/else/Test/input/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="768" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="768" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="6" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="282">
   <si>
     <t>索引</t>
   </si>
@@ -259,7 +259,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>名字</t>
+    <t>名字#color</t>
   </si>
   <si>
     <t>类别</t>
@@ -461,103 +461,106 @@
     <t>名称</t>
   </si>
   <si>
+    <t>图标#color</t>
+  </si>
+  <si>
+    <t>使用方式</t>
+  </si>
+  <si>
+    <t>使用距离</t>
+  </si>
+  <si>
+    <t>使用范围</t>
+  </si>
+  <si>
+    <t>间隔</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>目标类型</t>
+  </si>
+  <si>
+    <t>施放时间</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>代码（双击）</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>targettp</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>"abil_1"</t>
+  </si>
+  <si>
+    <t>"ReplaceableTextures\\CommandButtons\\BTNBreathOfFrost.blp"</t>
+  </si>
+  <si>
+    <t>"被动"</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>"abil_2"</t>
+  </si>
+  <si>
+    <t>"无目标"</t>
+  </si>
+  <si>
+    <t>"abil_3"</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>"abil_4"</t>
+  </si>
+  <si>
+    <t>"点"</t>
+  </si>
+  <si>
     <t>图标</t>
-  </si>
-  <si>
-    <t>使用方式</t>
-  </si>
-  <si>
-    <t>使用距离</t>
-  </si>
-  <si>
-    <t>使用范围</t>
-  </si>
-  <si>
-    <t>间隔</t>
-  </si>
-  <si>
-    <t>消耗</t>
-  </si>
-  <si>
-    <t>动作</t>
-  </si>
-  <si>
-    <t>目标类型</t>
-  </si>
-  <si>
-    <t>施放时间</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>代码（双击）</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>targettp</t>
-  </si>
-  <si>
-    <t>cast</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>"abil_1"</t>
-  </si>
-  <si>
-    <t>"ReplaceableTextures\\CommandButtons\\BTNBreathOfFrost.blp"</t>
-  </si>
-  <si>
-    <t>"被动"</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>"abil_2"</t>
-  </si>
-  <si>
-    <t>"无目标"</t>
-  </si>
-  <si>
-    <t>"abil_3"</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>"abil_4"</t>
-  </si>
-  <si>
-    <t>"点"</t>
   </si>
   <si>
     <t>冷却</t>
@@ -1325,12 +1328,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2547,12 +2550,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1"/>
@@ -2660,7 +2663,7 @@
     <row r="2" s="31" customFormat="1" customHeight="1" spans="1:23">
       <c r="A2" s="31" t="str">
         <f>A1</f>
-        <v>名字</v>
+        <v>名字#color</v>
       </c>
       <c r="B2" s="31" t="str">
         <f t="shared" ref="B2:C2" si="0">B1</f>
@@ -4064,12 +4067,12 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2"/>
@@ -4650,7 +4653,7 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C5:C6 C7:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"""被动"",""无目标"",""点"",""单位"""</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
@@ -4688,13 +4691,13 @@
         <v>70</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" s="45" t="s">
         <v>81</v>
@@ -4719,16 +4722,16 @@
     </row>
     <row r="3" ht="15.6" spans="1:5">
       <c r="A3" s="41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="48">
         <v>1</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3" s="49"/>
     </row>
@@ -5115,7 +5118,7 @@
         <v>74</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>80</v>
@@ -5124,19 +5127,19 @@
         <v>83</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>75</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M1" s="37" t="s">
         <v>81</v>
@@ -5195,7 +5198,7 @@
     </row>
     <row r="3" s="20" customFormat="1" spans="1:13">
       <c r="A3" s="32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>99</v>
@@ -5210,16 +5213,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J3" s="32">
         <v>0</v>
@@ -5234,7 +5237,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>99</v>
@@ -5249,16 +5252,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J4" s="32">
         <v>0</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>99</v>
@@ -5288,16 +5291,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J5" s="32">
         <v>0</v>
@@ -5312,7 +5315,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>99</v>
@@ -5327,16 +5330,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J6" s="32">
         <v>0</v>
@@ -5351,7 +5354,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>99</v>
@@ -5366,16 +5369,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J7" s="32">
         <v>0</v>
@@ -5390,7 +5393,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>99</v>
@@ -5405,16 +5408,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J8" s="32">
         <v>0</v>
@@ -5429,7 +5432,7 @@
     </row>
     <row r="9" s="21" customFormat="1" spans="1:13">
       <c r="A9" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>99</v>
@@ -5444,16 +5447,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J9" s="32">
         <v>0</v>
@@ -5468,7 +5471,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>99</v>
@@ -5483,16 +5486,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J10" s="32">
         <v>0</v>
@@ -5507,7 +5510,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>99</v>
@@ -5522,16 +5525,16 @@
         <v>1</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J11" s="32">
         <v>0</v>
@@ -5546,7 +5549,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>99</v>
@@ -5561,16 +5564,16 @@
         <v>1</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J12" s="32">
         <v>0</v>
@@ -5585,7 +5588,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>99</v>
@@ -5600,16 +5603,16 @@
         <v>2</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J13" s="32">
         <v>0</v>
@@ -5624,7 +5627,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>99</v>
@@ -5639,16 +5642,16 @@
         <v>2</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J14" s="32">
         <v>0</v>
@@ -5663,7 +5666,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>99</v>
@@ -5678,16 +5681,16 @@
         <v>2</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J15" s="32">
         <v>0</v>
@@ -5702,7 +5705,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>99</v>
@@ -5717,16 +5720,16 @@
         <v>2</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J16" s="32">
         <v>0</v>
@@ -5741,7 +5744,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>99</v>
@@ -5756,16 +5759,16 @@
         <v>2</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J17" s="32">
         <v>0</v>
@@ -5780,7 +5783,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>99</v>
@@ -5795,16 +5798,16 @@
         <v>3</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J18" s="32">
         <v>0</v>
@@ -5819,7 +5822,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>99</v>
@@ -5834,16 +5837,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J19" s="32">
         <v>0</v>
@@ -5858,7 +5861,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>99</v>
@@ -5873,16 +5876,16 @@
         <v>3</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J20" s="32">
         <v>0</v>
@@ -5897,7 +5900,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>99</v>
@@ -5912,16 +5915,16 @@
         <v>3</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J21" s="32">
         <v>0</v>
@@ -5936,7 +5939,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>99</v>
@@ -5951,16 +5954,16 @@
         <v>3</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J22" s="32">
         <v>0</v>
@@ -5975,7 +5978,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>99</v>
@@ -5990,16 +5993,16 @@
         <v>4</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J23" s="32">
         <v>0</v>
@@ -6014,7 +6017,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>99</v>
@@ -6029,16 +6032,16 @@
         <v>4</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J24" s="32">
         <v>0</v>
@@ -6053,7 +6056,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>99</v>
@@ -6068,16 +6071,16 @@
         <v>4</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J25" s="32">
         <v>0</v>
@@ -6092,7 +6095,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>99</v>
@@ -6107,16 +6110,16 @@
         <v>4</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J26" s="32">
         <v>0</v>
@@ -6131,7 +6134,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B27" s="32" t="s">
         <v>99</v>
@@ -6146,16 +6149,16 @@
         <v>4</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J27" s="32">
         <v>0</v>
@@ -6170,7 +6173,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>99</v>
@@ -6185,16 +6188,16 @@
         <v>5</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J28" s="32">
         <v>0</v>
@@ -6209,7 +6212,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>99</v>
@@ -6224,16 +6227,16 @@
         <v>5</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J29" s="32">
         <v>0</v>
@@ -6248,7 +6251,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>99</v>
@@ -6263,16 +6266,16 @@
         <v>5</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J30" s="32">
         <v>0</v>
@@ -6287,7 +6290,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>99</v>
@@ -6302,16 +6305,16 @@
         <v>5</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J31" s="32">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B32" s="32" t="s">
         <v>99</v>
@@ -6341,16 +6344,16 @@
         <v>5</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J32" s="32">
         <v>0</v>
@@ -6365,7 +6368,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B33" s="32" t="s">
         <v>99</v>
@@ -6380,16 +6383,16 @@
         <v>5</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J33" s="32">
         <v>0</v>
@@ -6404,7 +6407,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" s="32" t="s">
         <v>99</v>
@@ -6419,16 +6422,16 @@
         <v>5</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J34" s="32">
         <v>0</v>
@@ -7170,34 +7173,34 @@
   <sheetData>
     <row r="1" s="9" customFormat="1" ht="17.4" spans="1:10">
       <c r="A1" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="17.4" spans="1:10">
@@ -7244,28 +7247,28 @@
     </row>
     <row r="3" ht="17.4" spans="1:10">
       <c r="A3" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D3" s="15">
         <v>1</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F3" s="15">
         <v>0</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I3" s="15">
         <v>1</v>
@@ -7276,28 +7279,28 @@
     </row>
     <row r="4" ht="17.4" spans="1:13">
       <c r="A4" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>162</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="15">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="I4" s="15">
         <v>1</v>
@@ -7311,28 +7314,28 @@
     </row>
     <row r="5" ht="17.4" spans="1:10">
       <c r="A5" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D5" s="15">
         <v>1</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F5" s="15">
         <v>0</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I5" s="15">
         <v>1</v>
@@ -7343,28 +7346,28 @@
     </row>
     <row r="6" ht="17.4" spans="1:10">
       <c r="A6" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D6" s="15">
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F6" s="15">
         <v>0</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I6" s="15">
         <v>1</v>
@@ -7375,28 +7378,28 @@
     </row>
     <row r="7" ht="17.4" spans="1:10">
       <c r="A7" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F7" s="15">
         <v>0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I7" s="15">
         <v>1</v>
@@ -7407,28 +7410,28 @@
     </row>
     <row r="8" ht="17.4" spans="1:10">
       <c r="A8" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D8" s="15">
         <v>1</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F8" s="15">
         <v>0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I8" s="15">
         <v>1</v>
@@ -7439,28 +7442,28 @@
     </row>
     <row r="9" ht="17.4" spans="1:10">
       <c r="A9" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F9" s="15">
         <v>0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I9" s="15">
         <v>1</v>
@@ -7471,28 +7474,28 @@
     </row>
     <row r="10" ht="17.4" spans="1:10">
       <c r="A10" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I10" s="15">
         <v>1</v>
@@ -7503,28 +7506,28 @@
     </row>
     <row r="11" ht="17.4" spans="1:10">
       <c r="A11" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F11" s="15">
         <v>0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I11" s="15">
         <v>1</v>
@@ -7535,28 +7538,28 @@
     </row>
     <row r="12" ht="17.4" spans="1:10">
       <c r="A12" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D12" s="15">
         <v>1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F12" s="15">
         <v>0</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I12" s="15">
         <v>1</v>
@@ -7567,28 +7570,28 @@
     </row>
     <row r="13" ht="17.4" spans="1:10">
       <c r="A13" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" s="15">
         <v>1</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F13" s="15">
         <v>0</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I13" s="15">
         <v>1</v>
@@ -7599,28 +7602,28 @@
     </row>
     <row r="14" ht="17.4" spans="1:10">
       <c r="A14" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D14" s="15">
         <v>1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F14" s="15">
         <v>0</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I14" s="15">
         <v>1</v>
@@ -7631,28 +7634,28 @@
     </row>
     <row r="15" ht="17.4" spans="1:10">
       <c r="A15" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F15" s="15">
         <v>0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I15" s="15">
         <v>1</v>
@@ -7663,28 +7666,28 @@
     </row>
     <row r="16" ht="17.4" spans="1:10">
       <c r="A16" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D16" s="15">
         <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I16" s="15">
         <v>1</v>
@@ -7695,28 +7698,28 @@
     </row>
     <row r="17" ht="17.4" spans="1:10">
       <c r="A17" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F17" s="15">
         <v>0</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I17" s="15">
         <v>1</v>
@@ -7727,28 +7730,28 @@
     </row>
     <row r="18" ht="17.4" spans="1:10">
       <c r="A18" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D18" s="15">
         <v>1</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F18" s="15">
         <v>0</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I18" s="15">
         <v>1</v>
@@ -7759,28 +7762,28 @@
     </row>
     <row r="19" ht="17.4" spans="1:10">
       <c r="A19" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F19" s="15">
         <v>0</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I19" s="15">
         <v>1</v>
@@ -7791,28 +7794,28 @@
     </row>
     <row r="20" ht="17.4" spans="1:10">
       <c r="A20" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D20" s="15">
         <v>1</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F20" s="15">
         <v>0</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I20" s="15">
         <v>1</v>
@@ -7823,28 +7826,28 @@
     </row>
     <row r="21" ht="17.4" spans="1:10">
       <c r="A21" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F21" s="15">
         <v>0</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I21" s="15">
         <v>1</v>
@@ -7855,28 +7858,28 @@
     </row>
     <row r="22" ht="17.4" spans="1:10">
       <c r="A22" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D22" s="15">
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F22" s="15">
         <v>0</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I22" s="15">
         <v>1</v>
@@ -7887,28 +7890,28 @@
     </row>
     <row r="23" ht="17.4" spans="1:10">
       <c r="A23" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D23" s="15">
         <v>1</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F23" s="15">
         <v>0</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I23" s="15">
         <v>1</v>
@@ -7919,28 +7922,28 @@
     </row>
     <row r="24" ht="17.4" spans="1:10">
       <c r="A24" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D24" s="15">
         <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F24" s="15">
         <v>0</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I24" s="15">
         <v>1</v>
@@ -7951,28 +7954,28 @@
     </row>
     <row r="25" ht="17.4" spans="1:10">
       <c r="A25" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D25" s="15">
         <v>1</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F25" s="15">
         <v>0</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I25" s="15">
         <v>1</v>
@@ -7983,28 +7986,28 @@
     </row>
     <row r="26" ht="17.4" spans="1:10">
       <c r="A26" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D26" s="15">
         <v>1</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F26" s="15">
         <v>0</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I26" s="15">
         <v>1</v>
@@ -8015,28 +8018,28 @@
     </row>
     <row r="27" ht="17.4" spans="1:10">
       <c r="A27" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D27" s="15">
         <v>1</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F27" s="15">
         <v>0</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I27" s="15">
         <v>1</v>
@@ -8047,28 +8050,28 @@
     </row>
     <row r="28" ht="17.4" spans="1:10">
       <c r="A28" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D28" s="15">
         <v>1</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F28" s="15">
         <v>0</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I28" s="15">
         <v>1</v>
@@ -8079,28 +8082,28 @@
     </row>
     <row r="29" ht="17.4" spans="1:10">
       <c r="A29" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D29" s="15">
         <v>1</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F29" s="15">
         <v>0</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I29" s="15">
         <v>1</v>
@@ -8111,28 +8114,28 @@
     </row>
     <row r="30" ht="17.4" spans="1:10">
       <c r="A30" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D30" s="15">
         <v>1</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F30" s="15">
         <v>0</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I30" s="15">
         <v>1</v>
@@ -8143,28 +8146,28 @@
     </row>
     <row r="31" ht="17.4" spans="1:10">
       <c r="A31" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D31" s="15">
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F31" s="15">
         <v>0</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I31" s="15">
         <v>1</v>
@@ -8175,28 +8178,28 @@
     </row>
     <row r="32" ht="17.4" spans="1:10">
       <c r="A32" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D32" s="15">
         <v>1</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F32" s="15">
         <v>0</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I32" s="15">
         <v>1</v>
@@ -8207,28 +8210,28 @@
     </row>
     <row r="33" ht="17.4" spans="1:10">
       <c r="A33" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F33" s="15">
         <v>0</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I33" s="15">
         <v>1</v>
@@ -8239,28 +8242,28 @@
     </row>
     <row r="34" ht="17.4" spans="1:10">
       <c r="A34" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D34" s="15">
         <v>1</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F34" s="15">
         <v>0</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I34" s="15">
         <v>1</v>
@@ -8271,28 +8274,28 @@
     </row>
     <row r="35" ht="17.4" spans="1:10">
       <c r="A35" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D35" s="15">
         <v>1</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I35" s="15">
         <v>1</v>
@@ -8303,28 +8306,28 @@
     </row>
     <row r="36" ht="17.4" spans="1:10">
       <c r="A36" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D36" s="15">
         <v>1</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F36" s="15">
         <v>0</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I36" s="15">
         <v>1</v>
@@ -8335,28 +8338,28 @@
     </row>
     <row r="37" ht="17.4" spans="1:10">
       <c r="A37" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F37" s="15">
         <v>0</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I37" s="15">
         <v>1</v>
@@ -8367,28 +8370,28 @@
     </row>
     <row r="38" ht="17.4" spans="1:10">
       <c r="A38" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D38" s="15">
         <v>1</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F38" s="15">
         <v>0</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I38" s="15">
         <v>1</v>
@@ -8399,28 +8402,28 @@
     </row>
     <row r="39" ht="17.4" spans="1:10">
       <c r="A39" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D39" s="15">
         <v>1</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F39" s="15">
         <v>0</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I39" s="15">
         <v>1</v>
@@ -8431,28 +8434,28 @@
     </row>
     <row r="40" ht="17.4" spans="1:10">
       <c r="A40" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" s="15">
         <v>1</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F40" s="15">
         <v>0</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I40" s="15">
         <v>1</v>
@@ -8463,28 +8466,28 @@
     </row>
     <row r="41" ht="17.4" spans="1:10">
       <c r="A41" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D41" s="15">
         <v>1</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F41" s="15">
         <v>0</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I41" s="15">
         <v>1</v>
@@ -8495,28 +8498,28 @@
     </row>
     <row r="42" ht="17.4" spans="1:10">
       <c r="A42" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D42" s="15">
         <v>1</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F42" s="15">
         <v>0</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I42" s="15">
         <v>1</v>
@@ -8527,28 +8530,28 @@
     </row>
     <row r="43" ht="17.4" spans="1:10">
       <c r="A43" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D43" s="15">
         <v>1</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F43" s="15">
         <v>0</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I43" s="15">
         <v>1</v>
@@ -8559,28 +8562,28 @@
     </row>
     <row r="44" ht="17.4" spans="1:10">
       <c r="A44" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D44" s="15">
         <v>1</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F44" s="15">
         <v>0</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I44" s="15">
         <v>1</v>
@@ -8591,28 +8594,28 @@
     </row>
     <row r="45" ht="17.4" spans="1:10">
       <c r="A45" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D45" s="15">
         <v>1</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F45" s="15">
         <v>0</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I45" s="15">
         <v>1</v>
@@ -8623,28 +8626,28 @@
     </row>
     <row r="46" ht="17.4" spans="1:10">
       <c r="A46" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D46" s="15">
         <v>1</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F46" s="15">
         <v>0</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I46" s="15">
         <v>1</v>
@@ -8655,28 +8658,28 @@
     </row>
     <row r="47" ht="17.4" spans="1:10">
       <c r="A47" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D47" s="15">
         <v>1</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F47" s="15">
         <v>0</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I47" s="15">
         <v>1</v>
@@ -8687,28 +8690,28 @@
     </row>
     <row r="48" ht="17.4" spans="1:10">
       <c r="A48" s="15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D48" s="15">
         <v>1</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F48" s="15">
         <v>0</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I48" s="15">
         <v>1</v>
@@ -8719,28 +8722,28 @@
     </row>
     <row r="49" ht="17.4" spans="1:10">
       <c r="A49" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D49" s="15">
         <v>1</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F49" s="15">
         <v>0</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I49" s="15">
         <v>1</v>
@@ -8751,28 +8754,28 @@
     </row>
     <row r="50" ht="17.4" spans="1:10">
       <c r="A50" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="15">
         <v>1</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F50" s="15">
         <v>0</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I50" s="15">
         <v>1</v>
@@ -8783,28 +8786,28 @@
     </row>
     <row r="51" ht="17.4" spans="1:10">
       <c r="A51" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="15">
         <v>1</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F51" s="15">
         <v>0</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I51" s="15">
         <v>1</v>
@@ -8815,28 +8818,28 @@
     </row>
     <row r="52" ht="17.4" spans="1:10">
       <c r="A52" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="15">
         <v>1</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F52" s="15">
         <v>0</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I52" s="15">
         <v>1</v>
@@ -8847,28 +8850,28 @@
     </row>
     <row r="53" ht="17.4" spans="1:10">
       <c r="A53" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="15">
         <v>1</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F53" s="15">
         <v>0</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I53" s="15">
         <v>1</v>
@@ -8908,13 +8911,13 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -8933,57 +8936,57 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/else/Test/input/table.xlsx
+++ b/else/Test/input/table.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="768" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="768"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="6" r:id="rId1"/>
-    <sheet name="unit" sheetId="1" r:id="rId2"/>
-    <sheet name="ability" sheetId="2" r:id="rId3"/>
-    <sheet name="buff" sheetId="11" r:id="rId4"/>
-    <sheet name="item" sheetId="3" r:id="rId5"/>
-    <sheet name="mallitem" sheetId="9" r:id="rId6"/>
-    <sheet name="Server" sheetId="10" r:id="rId7"/>
+    <sheet name="unit" sheetId="1" r:id="rId1"/>
+    <sheet name="ability" sheetId="2" r:id="rId2"/>
+    <sheet name="buff" sheetId="11" r:id="rId3"/>
+    <sheet name="item" sheetId="3" r:id="rId4"/>
+    <sheet name="mallitem" sheetId="9" r:id="rId5"/>
+    <sheet name="Server" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -239,25 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="282">
-  <si>
-    <t>索引</t>
-  </si>
-  <si>
-    <t>数值</t>
-  </si>
-  <si>
-    <t>玩家数量</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>最大波数</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="277">
   <si>
     <t>名字#color</t>
   </si>
@@ -326,6 +307,9 @@
   </si>
   <si>
     <t>选择缩放</t>
+  </si>
+  <si>
+    <t>名字</t>
   </si>
   <si>
     <t>cool1</t>
@@ -1339,7 +1323,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1385,12 +1369,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1812,7 +1790,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1836,16 +1814,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1854,79 +1832,79 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1936,7 +1914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2162,12 +2140,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2500,53 +2472,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="2" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="23.2222222222222" style="14" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="78"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE75"/>
   <sheetViews>
@@ -2555,115 +2480,114 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8:C9"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.8888888888889" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.22222222222222" style="31" customWidth="1"/>
-    <col min="3" max="3" width="11.7777777777778" style="68" customWidth="1"/>
-    <col min="4" max="4" width="15.2222222222222" style="68" customWidth="1"/>
-    <col min="5" max="6" width="11.7777777777778" style="68" customWidth="1"/>
-    <col min="7" max="8" width="12.4444444444444" style="68" customWidth="1"/>
-    <col min="9" max="10" width="18.1111111111111" style="68" customWidth="1"/>
-    <col min="11" max="11" width="12.8888888888889" style="31" customWidth="1"/>
-    <col min="12" max="12" width="12.4444444444444" style="31" customWidth="1"/>
+    <col min="1" max="1" width="14.8916666666667" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.225" style="31" customWidth="1"/>
+    <col min="3" max="3" width="11.775" style="68" customWidth="1"/>
+    <col min="4" max="4" width="15.225" style="68" customWidth="1"/>
+    <col min="5" max="6" width="11.775" style="68" customWidth="1"/>
+    <col min="7" max="8" width="12.4416666666667" style="68" customWidth="1"/>
+    <col min="9" max="10" width="18.1083333333333" style="68" customWidth="1"/>
+    <col min="11" max="11" width="12.8916666666667" style="31" customWidth="1"/>
+    <col min="12" max="12" width="12.4416666666667" style="31" customWidth="1"/>
     <col min="13" max="13" width="18" style="31" customWidth="1"/>
-    <col min="14" max="14" width="34.1111111111111" style="68" customWidth="1"/>
-    <col min="15" max="15" width="16.8888888888889" style="31" customWidth="1"/>
-    <col min="16" max="16" width="12.4444444444444" style="31" customWidth="1"/>
-    <col min="17" max="17" width="30.8796296296296" style="31" customWidth="1"/>
-    <col min="18" max="21" width="12.4444444444444" style="31" customWidth="1"/>
-    <col min="22" max="22" width="15.1111111111111" style="31" customWidth="1"/>
-    <col min="23" max="23" width="12.4444444444444" style="31" customWidth="1"/>
+    <col min="14" max="14" width="34.1083333333333" style="68" customWidth="1"/>
+    <col min="15" max="15" width="16.8916666666667" style="31" customWidth="1"/>
+    <col min="16" max="16" width="12.4416666666667" style="31" customWidth="1"/>
+    <col min="17" max="17" width="30.8833333333333" style="31" customWidth="1"/>
+    <col min="18" max="21" width="12.4416666666667" style="31" customWidth="1"/>
+    <col min="22" max="22" width="15.1083333333333" style="31" customWidth="1"/>
+    <col min="23" max="23" width="12.4416666666667" style="31" customWidth="1"/>
     <col min="24" max="24" width="9" style="69"/>
-    <col min="25" max="25" width="15.2222222222222" style="31" customWidth="1"/>
-    <col min="26" max="26" width="11.7777777777778" style="31" customWidth="1"/>
-    <col min="27" max="28" width="12.4444444444444" style="31" customWidth="1"/>
-    <col min="29" max="29" width="11.7777777777778" style="31" customWidth="1"/>
-    <col min="30" max="30" width="12.4444444444444" style="31" customWidth="1"/>
-    <col min="31" max="31" width="18.1111111111111" style="31" customWidth="1"/>
-    <col min="32" max="32" width="13.1111111111111" style="31" customWidth="1"/>
+    <col min="25" max="25" width="15.225" style="31" customWidth="1"/>
+    <col min="26" max="26" width="11.775" style="31" customWidth="1"/>
+    <col min="27" max="28" width="12.4416666666667" style="31" customWidth="1"/>
+    <col min="29" max="29" width="11.775" style="31" customWidth="1"/>
+    <col min="30" max="30" width="12.4416666666667" style="31" customWidth="1"/>
+    <col min="31" max="31" width="18.1083333333333" style="31" customWidth="1"/>
+    <col min="32" max="32" width="13.1083333333333" style="31" customWidth="1"/>
     <col min="33" max="35" width="9" style="69"/>
     <col min="36" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="1" customHeight="1" spans="1:23">
       <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="N1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="R1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="S1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="T1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="V1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="W1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="31" t="s">
+    </row>
+    <row r="2" s="31" customFormat="1" customHeight="1" spans="1:23">
+      <c r="A2" s="31" t="s">
         <v>23</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" s="31" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A2" s="31" t="str">
-        <f>A1</f>
-        <v>名字#color</v>
       </c>
       <c r="B2" s="31" t="str">
         <f t="shared" ref="B2:C2" si="0">B1</f>
@@ -2686,34 +2610,34 @@
         <v>防御</v>
       </c>
       <c r="G2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="N2" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="31" t="s">
-        <v>36</v>
-      </c>
       <c r="P2" s="31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="31" t="str">
         <f t="shared" ref="Q2" si="2">Q1</f>
@@ -2728,25 +2652,25 @@
         <v>弹道速度</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U2" s="31" t="str">
         <f>U1</f>
         <v>血条高度</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" s="65" customFormat="1" customHeight="1" spans="1:23">
       <c r="A3" s="65" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C3" s="65">
         <v>1</v>
@@ -2761,13 +2685,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I3" s="76" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J3" s="65">
         <v>150</v>
@@ -2777,26 +2701,26 @@
         <v>150</v>
       </c>
       <c r="L3" s="65" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M3" s="65">
         <v>100</v>
       </c>
       <c r="N3" s="77" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O3" s="65">
         <v>1</v>
       </c>
       <c r="P3" s="65" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="65"/>
       <c r="R3" s="65" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S3" s="65" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="T3" s="65">
         <v>16</v>
@@ -2811,13 +2735,13 @@
     </row>
     <row r="4" s="31" customFormat="1" customHeight="1" spans="1:23">
       <c r="A4" s="70" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" s="65">
         <v>5000</v>
@@ -2829,13 +2753,13 @@
         <v>10</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I4" s="76" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" s="65">
         <v>150</v>
@@ -2845,26 +2769,26 @@
         <v>150</v>
       </c>
       <c r="L4" s="65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M4" s="65">
         <v>0</v>
       </c>
       <c r="N4" s="77" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="O4" s="65">
         <v>1</v>
       </c>
       <c r="P4" s="65" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="65"/>
       <c r="R4" s="65" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="T4" s="65">
         <v>16</v>
@@ -2879,31 +2803,31 @@
     </row>
     <row r="5" s="31" customFormat="1" customHeight="1" spans="1:23">
       <c r="A5" s="71" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F5" s="65">
         <v>10</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I5" s="76" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J5" s="65">
         <v>150</v>
@@ -2913,26 +2837,26 @@
         <v>150</v>
       </c>
       <c r="L5" s="65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M5" s="65">
         <v>0</v>
       </c>
       <c r="N5" s="77" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O5" s="65">
         <v>1</v>
       </c>
       <c r="P5" s="65" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="65"/>
       <c r="R5" s="65" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S5" s="65" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="T5" s="65">
         <v>16</v>
@@ -2947,31 +2871,31 @@
     </row>
     <row r="6" customHeight="1" spans="1:23">
       <c r="A6" s="72" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="65" t="s">
         <v>58</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>63</v>
       </c>
       <c r="F6" s="65">
         <v>10</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I6" s="76" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J6" s="65">
         <v>150</v>
@@ -2981,26 +2905,26 @@
         <v>150</v>
       </c>
       <c r="L6" s="65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M6" s="65">
         <v>0</v>
       </c>
       <c r="N6" s="77" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="O6" s="65">
         <v>1</v>
       </c>
       <c r="P6" s="65" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="65"/>
       <c r="R6" s="65" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="T6" s="65">
         <v>16</v>
@@ -3015,31 +2939,31 @@
     </row>
     <row r="7" customHeight="1" spans="1:23">
       <c r="A7" s="73" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F7" s="65">
         <v>10</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I7" s="76" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J7" s="65">
         <v>700</v>
@@ -3049,28 +2973,28 @@
         <v>700</v>
       </c>
       <c r="L7" s="65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M7" s="65">
         <v>0</v>
       </c>
       <c r="N7" s="77" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O7" s="65">
         <v>1</v>
       </c>
       <c r="P7" s="65" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R7" s="65" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S7" s="65" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="T7" s="65">
         <v>16</v>
@@ -4062,7 +3986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q26"/>
@@ -4075,16 +3999,16 @@
       <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="17.8796296296296" style="51" customWidth="1"/>
+    <col min="1" max="1" width="17.8833333333333" style="51" customWidth="1"/>
     <col min="2" max="2" width="32.6666666666667" style="52" customWidth="1"/>
-    <col min="3" max="5" width="12.4444444444444" style="51" customWidth="1"/>
-    <col min="6" max="7" width="11.7777777777778" style="51" customWidth="1"/>
-    <col min="8" max="8" width="9.55555555555556" style="51" customWidth="1"/>
-    <col min="9" max="10" width="12.4444444444444" style="51" customWidth="1"/>
-    <col min="11" max="11" width="25.6296296296296" style="51" customWidth="1"/>
-    <col min="12" max="12" width="18.1111111111111" style="51" customWidth="1"/>
+    <col min="3" max="5" width="12.4416666666667" style="51" customWidth="1"/>
+    <col min="6" max="7" width="11.775" style="51" customWidth="1"/>
+    <col min="8" max="8" width="9.55833333333333" style="51" customWidth="1"/>
+    <col min="9" max="10" width="12.4416666666667" style="51" customWidth="1"/>
+    <col min="11" max="11" width="25.6333333333333" style="51" customWidth="1"/>
+    <col min="12" max="12" width="18.1083333333333" style="51" customWidth="1"/>
     <col min="13" max="13" width="9" style="51"/>
     <col min="14" max="14" width="9" style="53"/>
     <col min="15" max="16" width="9" style="51"/>
@@ -4094,40 +4018,40 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="G1" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="L1" s="51" t="s">
         <v>76</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>81</v>
       </c>
       <c r="M1" s="61"/>
       <c r="N1" s="61"/>
@@ -4135,42 +4059,42 @@
       <c r="P1" s="61"/>
       <c r="Q1" s="61"/>
     </row>
-    <row r="2" ht="19.95" spans="1:17">
+    <row r="2" ht="21" spans="1:17">
       <c r="A2" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="G2" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="H2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="I2" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="J2" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="K2" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="L2" s="51" t="s">
         <v>88</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>93</v>
       </c>
       <c r="M2" s="61"/>
       <c r="N2" s="61"/>
@@ -4178,21 +4102,21 @@
       <c r="P2" s="61"/>
       <c r="Q2" s="61"/>
     </row>
-    <row r="3" s="50" customFormat="1" ht="19.95" spans="1:17">
+    <row r="3" s="50" customFormat="1" ht="21" spans="1:17">
       <c r="A3" s="55" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
@@ -4204,21 +4128,21 @@
       <c r="N3" s="63"/>
       <c r="Q3" s="63"/>
     </row>
-    <row r="4" s="50" customFormat="1" ht="19.95" spans="1:17">
+    <row r="4" s="50" customFormat="1" ht="21" spans="1:17">
       <c r="A4" s="55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
@@ -4233,21 +4157,21 @@
       <c r="P4" s="50"/>
       <c r="Q4" s="63"/>
     </row>
-    <row r="5" ht="19.95" spans="1:16">
+    <row r="5" ht="21" spans="1:16">
       <c r="A5" s="55" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
@@ -4261,21 +4185,21 @@
       <c r="O5" s="50"/>
       <c r="P5" s="63"/>
     </row>
-    <row r="6" ht="19.95" spans="1:16">
+    <row r="6" ht="21" spans="1:16">
       <c r="A6" s="55" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="50"/>
@@ -4289,7 +4213,7 @@
       <c r="O6" s="50"/>
       <c r="P6" s="63"/>
     </row>
-    <row r="7" ht="19.95" spans="1:16">
+    <row r="7" ht="21" spans="1:16">
       <c r="A7" s="55"/>
       <c r="B7" s="57"/>
       <c r="C7" s="50"/>
@@ -4307,7 +4231,7 @@
       <c r="O7" s="50"/>
       <c r="P7" s="63"/>
     </row>
-    <row r="8" ht="19.95" spans="1:16">
+    <row r="8" ht="21" spans="1:16">
       <c r="A8" s="55"/>
       <c r="B8" s="57"/>
       <c r="C8" s="50"/>
@@ -4325,7 +4249,7 @@
       <c r="O8" s="50"/>
       <c r="P8" s="63"/>
     </row>
-    <row r="9" ht="19.95" spans="1:17">
+    <row r="9" ht="21" spans="1:17">
       <c r="A9" s="58"/>
       <c r="B9" s="59"/>
       <c r="C9" s="60"/>
@@ -4344,7 +4268,7 @@
       <c r="P9" s="64"/>
       <c r="Q9" s="61"/>
     </row>
-    <row r="10" ht="19.95" spans="1:17">
+    <row r="10" ht="21" spans="1:17">
       <c r="A10" s="58"/>
       <c r="B10" s="59"/>
       <c r="C10" s="60"/>
@@ -4363,7 +4287,7 @@
       <c r="P10" s="64"/>
       <c r="Q10" s="61"/>
     </row>
-    <row r="11" ht="19.95" spans="1:16">
+    <row r="11" ht="21" spans="1:16">
       <c r="A11" s="58"/>
       <c r="B11" s="59"/>
       <c r="C11" s="60"/>
@@ -4381,7 +4305,7 @@
       <c r="O11" s="60"/>
       <c r="P11" s="64"/>
     </row>
-    <row r="12" ht="19.95" spans="1:16">
+    <row r="12" ht="21" spans="1:16">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="60"/>
@@ -4399,7 +4323,7 @@
       <c r="O12" s="60"/>
       <c r="P12" s="64"/>
     </row>
-    <row r="13" ht="19.95" spans="1:16">
+    <row r="13" ht="21" spans="1:16">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="60"/>
@@ -4417,7 +4341,7 @@
       <c r="O13" s="60"/>
       <c r="P13" s="64"/>
     </row>
-    <row r="14" ht="19.95" spans="1:16">
+    <row r="14" ht="21" spans="1:16">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="60"/>
@@ -4435,7 +4359,7 @@
       <c r="O14" s="60"/>
       <c r="P14" s="64"/>
     </row>
-    <row r="15" ht="19.95" spans="1:16">
+    <row r="15" ht="21" spans="1:16">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="60"/>
@@ -4453,7 +4377,7 @@
       <c r="O15" s="60"/>
       <c r="P15" s="64"/>
     </row>
-    <row r="16" ht="19.95" spans="1:16">
+    <row r="16" ht="21" spans="1:16">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="60"/>
@@ -4471,7 +4395,7 @@
       <c r="O16" s="60"/>
       <c r="P16" s="64"/>
     </row>
-    <row r="17" ht="19.95" spans="1:16">
+    <row r="17" ht="21" spans="1:16">
       <c r="A17" s="58"/>
       <c r="B17" s="59"/>
       <c r="C17" s="60"/>
@@ -4489,7 +4413,7 @@
       <c r="O17" s="60"/>
       <c r="P17" s="64"/>
     </row>
-    <row r="18" ht="19.95" spans="1:16">
+    <row r="18" ht="21" spans="1:16">
       <c r="A18" s="58"/>
       <c r="B18" s="59"/>
       <c r="C18" s="60"/>
@@ -4507,7 +4431,7 @@
       <c r="O18" s="60"/>
       <c r="P18" s="64"/>
     </row>
-    <row r="19" ht="19.95" spans="1:16">
+    <row r="19" ht="21" spans="1:16">
       <c r="A19" s="58"/>
       <c r="B19" s="59"/>
       <c r="C19" s="60"/>
@@ -4525,7 +4449,7 @@
       <c r="O19" s="60"/>
       <c r="P19" s="64"/>
     </row>
-    <row r="20" ht="19.95" spans="1:16">
+    <row r="20" ht="21" spans="1:16">
       <c r="A20" s="58"/>
       <c r="B20" s="59"/>
       <c r="C20" s="60"/>
@@ -4543,7 +4467,7 @@
       <c r="O20" s="60"/>
       <c r="P20" s="64"/>
     </row>
-    <row r="21" ht="19.95" spans="1:16">
+    <row r="21" ht="21" spans="1:16">
       <c r="A21" s="58"/>
       <c r="B21" s="59"/>
       <c r="C21" s="60"/>
@@ -4561,7 +4485,7 @@
       <c r="O21" s="60"/>
       <c r="P21" s="64"/>
     </row>
-    <row r="22" ht="19.95" spans="1:16">
+    <row r="22" ht="21" spans="1:16">
       <c r="A22" s="58"/>
       <c r="B22" s="59"/>
       <c r="C22" s="60"/>
@@ -4579,7 +4503,7 @@
       <c r="O22" s="60"/>
       <c r="P22" s="64"/>
     </row>
-    <row r="23" ht="19.95" spans="1:16">
+    <row r="23" ht="21" spans="1:16">
       <c r="A23" s="58"/>
       <c r="B23" s="59"/>
       <c r="C23" s="60"/>
@@ -4597,7 +4521,7 @@
       <c r="O23" s="60"/>
       <c r="P23" s="64"/>
     </row>
-    <row r="24" ht="19.95" spans="1:16">
+    <row r="24" ht="21" spans="1:16">
       <c r="A24" s="58"/>
       <c r="B24" s="59"/>
       <c r="C24" s="60"/>
@@ -4615,7 +4539,7 @@
       <c r="O24" s="60"/>
       <c r="P24" s="64"/>
     </row>
-    <row r="25" ht="19.95" spans="1:16">
+    <row r="25" ht="21" spans="1:16">
       <c r="A25" s="58"/>
       <c r="B25" s="59"/>
       <c r="C25" s="60"/>
@@ -4669,7 +4593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E62"/>
@@ -4678,7 +4602,7 @@
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.75" style="41" customWidth="1"/>
     <col min="2" max="2" width="44.25" style="42" customWidth="1"/>
@@ -4686,380 +4610,380 @@
     <col min="4" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" ht="16.35" spans="1:5">
+    <row r="1" s="40" customFormat="1" ht="16.5" spans="1:5">
       <c r="A1" s="43" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" ht="14.55" spans="1:5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:5">
       <c r="A2" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>92</v>
-      </c>
       <c r="E2" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
       <c r="A3" s="41" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C3" s="48">
         <v>1</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E3" s="49"/>
     </row>
-    <row r="4" ht="15.6" spans="2:5">
+    <row r="4" ht="16.5" spans="2:5">
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
       <c r="E4"/>
     </row>
-    <row r="5" ht="15.6" spans="2:5">
+    <row r="5" ht="16.5" spans="2:5">
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
       <c r="E5"/>
     </row>
-    <row r="6" ht="15.6" spans="2:5">
+    <row r="6" ht="16.5" spans="2:5">
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
       <c r="E6"/>
     </row>
-    <row r="7" ht="15.6" spans="2:5">
+    <row r="7" ht="16.5" spans="2:5">
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
       <c r="E7"/>
     </row>
-    <row r="8" ht="15.6" spans="2:5">
+    <row r="8" ht="16.5" spans="2:5">
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="E8"/>
     </row>
-    <row r="9" ht="15.6" spans="2:5">
+    <row r="9" ht="16.5" spans="2:5">
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
       <c r="E9"/>
     </row>
-    <row r="10" ht="15.6" spans="1:5">
+    <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="49"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
       <c r="E10"/>
     </row>
-    <row r="11" ht="15.6" spans="2:5">
+    <row r="11" ht="16.5" spans="2:5">
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
       <c r="E11"/>
     </row>
-    <row r="12" ht="15.6" spans="2:5">
+    <row r="12" ht="16.5" spans="2:5">
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
       <c r="D12" s="48"/>
       <c r="E12"/>
     </row>
-    <row r="13" ht="15.6" spans="2:5">
+    <row r="13" ht="16.5" spans="2:5">
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
       <c r="D13" s="48"/>
       <c r="E13"/>
     </row>
-    <row r="14" ht="15.6" spans="2:5">
+    <row r="14" ht="16.5" spans="2:5">
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
       <c r="D14" s="48"/>
       <c r="E14"/>
     </row>
-    <row r="15" ht="15.6" spans="2:4">
+    <row r="15" ht="16.5" spans="2:4">
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
     </row>
-    <row r="16" ht="15.6" spans="2:4">
+    <row r="16" ht="16.5" spans="2:4">
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
     </row>
-    <row r="17" ht="15.6" spans="2:4">
+    <row r="17" ht="16.5" spans="2:4">
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
     </row>
-    <row r="18" ht="15.6" spans="2:4">
+    <row r="18" ht="16.5" spans="2:4">
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
     </row>
-    <row r="19" ht="15.6" spans="2:4">
+    <row r="19" ht="16.5" spans="2:4">
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
     </row>
-    <row r="20" ht="15.6" spans="2:4">
+    <row r="20" ht="16.5" spans="2:4">
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
     </row>
-    <row r="21" ht="15.6" spans="2:4">
+    <row r="21" ht="16.5" spans="2:4">
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
     </row>
-    <row r="22" ht="15.6" spans="1:4">
+    <row r="22" ht="16.5" spans="1:4">
       <c r="A22" s="49"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
       <c r="D22" s="48"/>
     </row>
-    <row r="23" ht="15.6" spans="2:4">
+    <row r="23" ht="16.5" spans="2:4">
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
     </row>
-    <row r="24" ht="15.6" spans="2:4">
+    <row r="24" ht="16.5" spans="2:4">
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>
     </row>
-    <row r="25" ht="15.6" spans="2:4">
+    <row r="25" ht="16.5" spans="2:4">
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
     </row>
-    <row r="26" ht="15.6" spans="2:4">
+    <row r="26" ht="16.5" spans="2:4">
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
     </row>
-    <row r="27" ht="15.6" spans="2:4">
+    <row r="27" ht="16.5" spans="2:4">
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
     </row>
-    <row r="28" ht="15.6" spans="2:4">
+    <row r="28" ht="16.5" spans="2:4">
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
     </row>
-    <row r="29" ht="15.6" spans="2:4">
+    <row r="29" ht="16.5" spans="2:4">
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
     </row>
-    <row r="30" ht="15.6" spans="2:4">
+    <row r="30" ht="16.5" spans="2:4">
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
     </row>
-    <row r="31" ht="15.6" spans="2:4">
+    <row r="31" ht="16.5" spans="2:4">
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
     </row>
-    <row r="32" ht="15.6" spans="2:4">
+    <row r="32" ht="16.5" spans="2:4">
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
       <c r="D32" s="48"/>
     </row>
-    <row r="33" ht="15.6" spans="2:4">
+    <row r="33" ht="16.5" spans="2:4">
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
       <c r="D33" s="48"/>
     </row>
-    <row r="34" ht="15.6" spans="2:4">
+    <row r="34" ht="16.5" spans="2:4">
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
       <c r="D34" s="48"/>
     </row>
-    <row r="35" ht="15.6" spans="2:4">
+    <row r="35" ht="16.5" spans="2:4">
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
     </row>
-    <row r="36" ht="15.6" spans="2:4">
+    <row r="36" ht="16.5" spans="2:4">
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
     </row>
-    <row r="37" ht="15.6" spans="1:4">
+    <row r="37" ht="16.5" spans="1:4">
       <c r="A37" s="49"/>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
     </row>
-    <row r="38" ht="15.6" spans="1:4">
+    <row r="38" ht="16.5" spans="1:4">
       <c r="A38" s="49"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
       <c r="D38" s="48"/>
     </row>
-    <row r="39" ht="15.6" spans="2:4">
+    <row r="39" ht="16.5" spans="2:4">
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
       <c r="D39" s="48"/>
     </row>
-    <row r="40" ht="15.6" spans="2:4">
+    <row r="40" ht="16.5" spans="2:4">
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
       <c r="D40" s="48"/>
     </row>
-    <row r="41" ht="15.6" spans="2:4">
+    <row r="41" ht="16.5" spans="2:4">
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
       <c r="D41" s="48"/>
     </row>
-    <row r="42" ht="15.6" spans="2:4">
+    <row r="42" ht="16.5" spans="2:4">
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
       <c r="D42" s="48"/>
     </row>
-    <row r="43" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="43" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
       <c r="D43" s="48"/>
       <c r="E43" s="49"/>
     </row>
-    <row r="44" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="44" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
       <c r="D44" s="48"/>
       <c r="E44" s="49"/>
     </row>
-    <row r="45" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="45" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
       <c r="E45" s="49"/>
     </row>
-    <row r="46" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="46" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
       <c r="D46" s="48"/>
       <c r="E46" s="49"/>
     </row>
-    <row r="47" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="47" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
       <c r="E47" s="49"/>
     </row>
-    <row r="48" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="48" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
       <c r="D48" s="48"/>
       <c r="E48" s="49"/>
     </row>
-    <row r="49" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="49" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
       <c r="D49" s="48"/>
       <c r="E49" s="49"/>
     </row>
-    <row r="50" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="50" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
       <c r="D50" s="48"/>
       <c r="E50" s="49"/>
     </row>
-    <row r="51" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="51" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
       <c r="D51" s="48"/>
       <c r="E51" s="49"/>
     </row>
-    <row r="52" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="52" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
       <c r="D52" s="48"/>
       <c r="E52" s="49"/>
     </row>
-    <row r="53" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="53" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
       <c r="D53" s="48"/>
       <c r="E53" s="49"/>
     </row>
-    <row r="54" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="54" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
       <c r="D54" s="48"/>
       <c r="E54" s="49"/>
     </row>
-    <row r="55" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="55" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
       <c r="E55" s="49"/>
     </row>
-    <row r="56" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="56" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
       <c r="D56" s="48"/>
       <c r="E56" s="49"/>
     </row>
-    <row r="57" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="57" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
       <c r="D57" s="48"/>
       <c r="E57" s="49"/>
     </row>
-    <row r="58" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="58" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
       <c r="D58" s="48"/>
       <c r="E58" s="49"/>
     </row>
-    <row r="59" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="59" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
       <c r="E59" s="49"/>
     </row>
-    <row r="60" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="60" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="49"/>
     </row>
-    <row r="61" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="61" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
       <c r="D61" s="48"/>
       <c r="E61" s="49"/>
     </row>
-    <row r="62" s="41" customFormat="1" ht="15.6" spans="2:5">
+    <row r="62" s="41" customFormat="1" ht="16.5" spans="2:5">
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
       <c r="D62" s="48"/>
@@ -5075,7 +4999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M80"/>
@@ -5088,69 +5012,69 @@
       <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="20.3796296296296" style="22" customWidth="1"/>
-    <col min="2" max="4" width="12.4444444444444" style="22" customWidth="1"/>
-    <col min="5" max="5" width="11.7777777777778" style="23" customWidth="1"/>
+    <col min="1" max="1" width="20.3833333333333" style="22" customWidth="1"/>
+    <col min="2" max="4" width="12.4416666666667" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.775" style="23" customWidth="1"/>
     <col min="6" max="6" width="9" style="23" customWidth="1"/>
-    <col min="7" max="7" width="15.7777777777778" style="24" customWidth="1"/>
-    <col min="8" max="8" width="16.4444444444444" style="25" customWidth="1"/>
-    <col min="9" max="9" width="12.4444444444444" style="25" customWidth="1"/>
-    <col min="10" max="10" width="11.7777777777778" style="23" customWidth="1"/>
-    <col min="11" max="11" width="15.4444444444444" style="26" customWidth="1"/>
-    <col min="12" max="12" width="13.1111111111111" style="26" customWidth="1"/>
-    <col min="13" max="13" width="18.1111111111111" style="26" customWidth="1"/>
+    <col min="7" max="7" width="15.775" style="24" customWidth="1"/>
+    <col min="8" max="8" width="16.4416666666667" style="25" customWidth="1"/>
+    <col min="9" max="9" width="12.4416666666667" style="25" customWidth="1"/>
+    <col min="10" max="10" width="11.775" style="23" customWidth="1"/>
+    <col min="11" max="11" width="15.4416666666667" style="26" customWidth="1"/>
+    <col min="12" max="12" width="13.1083333333333" style="26" customWidth="1"/>
+    <col min="13" max="13" width="18.1083333333333" style="26" customWidth="1"/>
     <col min="14" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>75</v>
-      </c>
       <c r="K1" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2" s="31" t="str">
         <f>C1</f>
@@ -5193,15 +5117,15 @@
         <v>价格</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" s="20" customFormat="1" spans="1:13">
       <c r="A3" s="32" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" s="32">
         <v>100</v>
@@ -5213,16 +5137,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J3" s="32">
         <v>0</v>
@@ -5237,10 +5161,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="34" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="32">
         <v>100</v>
@@ -5252,16 +5176,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J4" s="32">
         <v>0</v>
@@ -5276,10 +5200,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" s="32">
         <v>100</v>
@@ -5291,16 +5215,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J5" s="32">
         <v>0</v>
@@ -5315,10 +5239,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="32" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C6" s="32">
         <v>100</v>
@@ -5330,16 +5254,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J6" s="32">
         <v>0</v>
@@ -5354,10 +5278,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="32" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C7" s="32">
         <v>100</v>
@@ -5369,16 +5293,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J7" s="32">
         <v>0</v>
@@ -5393,10 +5317,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C8" s="32">
         <v>100</v>
@@ -5408,16 +5332,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J8" s="32">
         <v>0</v>
@@ -5432,10 +5356,10 @@
     </row>
     <row r="9" s="21" customFormat="1" spans="1:13">
       <c r="A9" s="32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C9" s="32">
         <v>100</v>
@@ -5447,16 +5371,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J9" s="32">
         <v>0</v>
@@ -5471,10 +5395,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C10" s="32">
         <v>100</v>
@@ -5486,16 +5410,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J10" s="32">
         <v>0</v>
@@ -5510,10 +5434,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="32" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C11" s="32">
         <v>100</v>
@@ -5525,16 +5449,16 @@
         <v>1</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J11" s="32">
         <v>0</v>
@@ -5549,10 +5473,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C12" s="32">
         <v>100</v>
@@ -5564,16 +5488,16 @@
         <v>1</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J12" s="32">
         <v>0</v>
@@ -5588,10 +5512,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="32" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C13" s="32">
         <v>100</v>
@@ -5603,16 +5527,16 @@
         <v>2</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J13" s="32">
         <v>0</v>
@@ -5627,10 +5551,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C14" s="32">
         <v>100</v>
@@ -5642,16 +5566,16 @@
         <v>2</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J14" s="32">
         <v>0</v>
@@ -5666,10 +5590,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C15" s="32">
         <v>100</v>
@@ -5681,16 +5605,16 @@
         <v>2</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J15" s="32">
         <v>0</v>
@@ -5705,10 +5629,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="32" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C16" s="32">
         <v>100</v>
@@ -5720,16 +5644,16 @@
         <v>2</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J16" s="32">
         <v>0</v>
@@ -5744,10 +5668,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="32" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C17" s="32">
         <v>100</v>
@@ -5759,16 +5683,16 @@
         <v>2</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J17" s="32">
         <v>0</v>
@@ -5783,10 +5707,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="32" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C18" s="32">
         <v>100</v>
@@ -5798,16 +5722,16 @@
         <v>3</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J18" s="32">
         <v>0</v>
@@ -5822,10 +5746,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="32" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C19" s="32">
         <v>100</v>
@@ -5837,16 +5761,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J19" s="32">
         <v>0</v>
@@ -5861,10 +5785,10 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C20" s="32">
         <v>100</v>
@@ -5876,16 +5800,16 @@
         <v>3</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J20" s="32">
         <v>0</v>
@@ -5900,10 +5824,10 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="32" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C21" s="32">
         <v>100</v>
@@ -5915,16 +5839,16 @@
         <v>3</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J21" s="32">
         <v>0</v>
@@ -5939,10 +5863,10 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="32" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C22" s="32">
         <v>100</v>
@@ -5954,16 +5878,16 @@
         <v>3</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J22" s="32">
         <v>0</v>
@@ -5978,10 +5902,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C23" s="32">
         <v>100</v>
@@ -5993,16 +5917,16 @@
         <v>4</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J23" s="32">
         <v>0</v>
@@ -6017,10 +5941,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="32" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C24" s="32">
         <v>100</v>
@@ -6032,16 +5956,16 @@
         <v>4</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J24" s="32">
         <v>0</v>
@@ -6056,10 +5980,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="32" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C25" s="32">
         <v>100</v>
@@ -6071,16 +5995,16 @@
         <v>4</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J25" s="32">
         <v>0</v>
@@ -6095,10 +6019,10 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C26" s="32">
         <v>100</v>
@@ -6110,16 +6034,16 @@
         <v>4</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J26" s="32">
         <v>0</v>
@@ -6134,10 +6058,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="32" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C27" s="32">
         <v>100</v>
@@ -6149,16 +6073,16 @@
         <v>4</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J27" s="32">
         <v>0</v>
@@ -6173,10 +6097,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="32" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C28" s="32">
         <v>100</v>
@@ -6188,16 +6112,16 @@
         <v>5</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J28" s="32">
         <v>0</v>
@@ -6212,10 +6136,10 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="32" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C29" s="32">
         <v>100</v>
@@ -6227,16 +6151,16 @@
         <v>5</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J29" s="32">
         <v>0</v>
@@ -6251,10 +6175,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C30" s="32">
         <v>100</v>
@@ -6266,16 +6190,16 @@
         <v>5</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J30" s="32">
         <v>0</v>
@@ -6290,10 +6214,10 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C31" s="32">
         <v>100</v>
@@ -6305,16 +6229,16 @@
         <v>5</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J31" s="32">
         <v>0</v>
@@ -6329,10 +6253,10 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="32" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C32" s="32">
         <v>100</v>
@@ -6344,16 +6268,16 @@
         <v>5</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J32" s="32">
         <v>0</v>
@@ -6368,10 +6292,10 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="32" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C33" s="32">
         <v>100</v>
@@ -6383,16 +6307,16 @@
         <v>5</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J33" s="32">
         <v>0</v>
@@ -6407,10 +6331,10 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="32" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C34" s="32">
         <v>100</v>
@@ -6422,16 +6346,16 @@
         <v>5</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J34" s="32">
         <v>0</v>
@@ -7145,7 +7069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M53"/>
@@ -7154,56 +7078,56 @@
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.1111111111111" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.1083333333333" style="10" customWidth="1"/>
     <col min="2" max="2" width="9" style="10" customWidth="1"/>
-    <col min="3" max="4" width="12.1111111111111" style="10" customWidth="1"/>
+    <col min="3" max="4" width="12.1083333333333" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.6666666666667" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.1111111111111" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.1111111111111" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.2222222222222" style="12" customWidth="1"/>
-    <col min="9" max="9" width="12.1111111111111" style="10" customWidth="1"/>
-    <col min="10" max="10" width="11.7777777777778" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.1083333333333" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.1083333333333" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.225" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.1083333333333" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.775" style="10" customWidth="1"/>
     <col min="11" max="11" width="3.33333333333333" customWidth="1"/>
     <col min="12" max="12" width="6.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="9.37962962962963" customWidth="1"/>
+    <col min="13" max="13" width="9.38333333333333" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="17.4" spans="1:10">
+    <row r="1" s="9" customFormat="1" ht="18" spans="1:10">
       <c r="A1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>156</v>
-      </c>
       <c r="J1" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="17.4" spans="1:10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="18" spans="1:10">
       <c r="A2" s="15" t="str">
         <f>A1</f>
         <v>物品名称</v>
@@ -7245,30 +7169,30 @@
         <v>价格</v>
       </c>
     </row>
-    <row r="3" ht="17.4" spans="1:10">
+    <row r="3" ht="18" spans="1:10">
       <c r="A3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>157</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="15">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>162</v>
       </c>
       <c r="I3" s="15">
         <v>1</v>
@@ -7277,30 +7201,30 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" ht="17.4" spans="1:13">
+    <row r="4" ht="18" spans="1:13">
       <c r="A4" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="15">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>164</v>
-      </c>
       <c r="F4" s="15">
         <v>0</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I4" s="15">
         <v>1</v>
@@ -7312,30 +7236,30 @@
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
     </row>
-    <row r="5" ht="17.4" spans="1:10">
+    <row r="5" ht="18" spans="1:10">
       <c r="A5" s="15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D5" s="15">
         <v>1</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F5" s="15">
         <v>0</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I5" s="15">
         <v>1</v>
@@ -7344,30 +7268,30 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" ht="17.4" spans="1:10">
+    <row r="6" ht="18" spans="1:10">
       <c r="A6" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D6" s="15">
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F6" s="15">
         <v>0</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I6" s="15">
         <v>1</v>
@@ -7376,30 +7300,30 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" ht="17.4" spans="1:10">
+    <row r="7" ht="18" spans="1:10">
       <c r="A7" s="15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F7" s="15">
         <v>0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I7" s="15">
         <v>1</v>
@@ -7408,30 +7332,30 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" ht="17.4" spans="1:10">
+    <row r="8" ht="18" spans="1:10">
       <c r="A8" s="15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D8" s="15">
         <v>1</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F8" s="15">
         <v>0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I8" s="15">
         <v>1</v>
@@ -7440,30 +7364,30 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" ht="17.4" spans="1:10">
+    <row r="9" ht="18" spans="1:10">
       <c r="A9" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F9" s="15">
         <v>0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I9" s="15">
         <v>1</v>
@@ -7472,30 +7396,30 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" ht="17.4" spans="1:10">
+    <row r="10" ht="18" spans="1:10">
       <c r="A10" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I10" s="15">
         <v>1</v>
@@ -7504,30 +7428,30 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" ht="17.4" spans="1:10">
+    <row r="11" ht="18" spans="1:10">
       <c r="A11" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F11" s="15">
         <v>0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I11" s="15">
         <v>1</v>
@@ -7536,30 +7460,30 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" ht="17.4" spans="1:10">
+    <row r="12" ht="18" spans="1:10">
       <c r="A12" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D12" s="15">
         <v>1</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F12" s="15">
         <v>0</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I12" s="15">
         <v>1</v>
@@ -7568,30 +7492,30 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" ht="17.4" spans="1:10">
+    <row r="13" ht="18" spans="1:10">
       <c r="A13" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D13" s="15">
         <v>1</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F13" s="15">
         <v>0</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I13" s="15">
         <v>1</v>
@@ -7600,30 +7524,30 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" ht="17.4" spans="1:10">
+    <row r="14" ht="18" spans="1:10">
       <c r="A14" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D14" s="15">
         <v>1</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F14" s="15">
         <v>0</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I14" s="15">
         <v>1</v>
@@ -7632,30 +7556,30 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" ht="17.4" spans="1:10">
+    <row r="15" ht="18" spans="1:10">
       <c r="A15" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F15" s="15">
         <v>0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I15" s="15">
         <v>1</v>
@@ -7664,30 +7588,30 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" ht="17.4" spans="1:10">
+    <row r="16" ht="18" spans="1:10">
       <c r="A16" s="15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D16" s="15">
         <v>1</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I16" s="15">
         <v>1</v>
@@ -7696,30 +7620,30 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" ht="17.4" spans="1:10">
+    <row r="17" ht="18" spans="1:10">
       <c r="A17" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F17" s="15">
         <v>0</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I17" s="15">
         <v>1</v>
@@ -7728,30 +7652,30 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" ht="17.4" spans="1:10">
+    <row r="18" ht="18" spans="1:10">
       <c r="A18" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D18" s="15">
         <v>1</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F18" s="15">
         <v>0</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I18" s="15">
         <v>1</v>
@@ -7760,30 +7684,30 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" ht="17.4" spans="1:10">
+    <row r="19" ht="18" spans="1:10">
       <c r="A19" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F19" s="15">
         <v>0</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I19" s="15">
         <v>1</v>
@@ -7792,30 +7716,30 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" ht="17.4" spans="1:10">
+    <row r="20" ht="18" spans="1:10">
       <c r="A20" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D20" s="15">
         <v>1</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F20" s="15">
         <v>0</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I20" s="15">
         <v>1</v>
@@ -7824,30 +7748,30 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" ht="17.4" spans="1:10">
+    <row r="21" ht="18" spans="1:10">
       <c r="A21" s="15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F21" s="15">
         <v>0</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I21" s="15">
         <v>1</v>
@@ -7856,30 +7780,30 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" ht="17.4" spans="1:10">
+    <row r="22" ht="18" spans="1:10">
       <c r="A22" s="15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D22" s="15">
         <v>1</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F22" s="15">
         <v>0</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I22" s="15">
         <v>1</v>
@@ -7888,30 +7812,30 @@
         <v>290</v>
       </c>
     </row>
-    <row r="23" ht="17.4" spans="1:10">
+    <row r="23" ht="18" spans="1:10">
       <c r="A23" s="15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D23" s="15">
         <v>1</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F23" s="15">
         <v>0</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I23" s="15">
         <v>1</v>
@@ -7920,30 +7844,30 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" ht="17.4" spans="1:10">
+    <row r="24" ht="18" spans="1:10">
       <c r="A24" s="15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D24" s="15">
         <v>1</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F24" s="15">
         <v>0</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I24" s="15">
         <v>1</v>
@@ -7952,30 +7876,30 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" ht="17.4" spans="1:10">
+    <row r="25" ht="18" spans="1:10">
       <c r="A25" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D25" s="15">
         <v>1</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F25" s="15">
         <v>0</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I25" s="15">
         <v>1</v>
@@ -7984,30 +7908,30 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" ht="17.4" spans="1:10">
+    <row r="26" ht="18" spans="1:10">
       <c r="A26" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D26" s="15">
         <v>1</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F26" s="15">
         <v>0</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I26" s="15">
         <v>1</v>
@@ -8016,30 +7940,30 @@
         <v>330</v>
       </c>
     </row>
-    <row r="27" ht="17.4" spans="1:10">
+    <row r="27" ht="18" spans="1:10">
       <c r="A27" s="15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D27" s="15">
         <v>1</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F27" s="15">
         <v>0</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I27" s="15">
         <v>1</v>
@@ -8048,30 +7972,30 @@
         <v>340</v>
       </c>
     </row>
-    <row r="28" ht="17.4" spans="1:10">
+    <row r="28" ht="18" spans="1:10">
       <c r="A28" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D28" s="15">
         <v>1</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F28" s="15">
         <v>0</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I28" s="15">
         <v>1</v>
@@ -8080,30 +8004,30 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" ht="17.4" spans="1:10">
+    <row r="29" ht="18" spans="1:10">
       <c r="A29" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D29" s="15">
         <v>1</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F29" s="15">
         <v>0</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I29" s="15">
         <v>1</v>
@@ -8112,30 +8036,30 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" ht="17.4" spans="1:10">
+    <row r="30" ht="18" spans="1:10">
       <c r="A30" s="15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D30" s="15">
         <v>1</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F30" s="15">
         <v>0</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I30" s="15">
         <v>1</v>
@@ -8144,30 +8068,30 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" ht="17.4" spans="1:10">
+    <row r="31" ht="18" spans="1:10">
       <c r="A31" s="15" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D31" s="15">
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F31" s="15">
         <v>0</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I31" s="15">
         <v>1</v>
@@ -8176,30 +8100,30 @@
         <v>380</v>
       </c>
     </row>
-    <row r="32" ht="17.4" spans="1:10">
+    <row r="32" ht="18" spans="1:10">
       <c r="A32" s="15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D32" s="15">
         <v>1</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F32" s="15">
         <v>0</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I32" s="15">
         <v>1</v>
@@ -8208,30 +8132,30 @@
         <v>390</v>
       </c>
     </row>
-    <row r="33" ht="17.4" spans="1:10">
+    <row r="33" ht="18" spans="1:10">
       <c r="A33" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F33" s="15">
         <v>0</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I33" s="15">
         <v>1</v>
@@ -8240,30 +8164,30 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" ht="17.4" spans="1:10">
+    <row r="34" ht="18" spans="1:10">
       <c r="A34" s="15" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D34" s="15">
         <v>1</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F34" s="15">
         <v>0</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I34" s="15">
         <v>1</v>
@@ -8272,30 +8196,30 @@
         <v>410</v>
       </c>
     </row>
-    <row r="35" ht="17.4" spans="1:10">
+    <row r="35" ht="18" spans="1:10">
       <c r="A35" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D35" s="15">
         <v>1</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I35" s="15">
         <v>1</v>
@@ -8304,30 +8228,30 @@
         <v>420</v>
       </c>
     </row>
-    <row r="36" ht="17.4" spans="1:10">
+    <row r="36" ht="18" spans="1:10">
       <c r="A36" s="15" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D36" s="15">
         <v>1</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F36" s="15">
         <v>0</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I36" s="15">
         <v>1</v>
@@ -8336,30 +8260,30 @@
         <v>430</v>
       </c>
     </row>
-    <row r="37" ht="17.4" spans="1:10">
+    <row r="37" ht="18" spans="1:10">
       <c r="A37" s="15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F37" s="15">
         <v>0</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I37" s="15">
         <v>1</v>
@@ -8368,30 +8292,30 @@
         <v>440</v>
       </c>
     </row>
-    <row r="38" ht="17.4" spans="1:10">
+    <row r="38" ht="18" spans="1:10">
       <c r="A38" s="15" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D38" s="15">
         <v>1</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F38" s="15">
         <v>0</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I38" s="15">
         <v>1</v>
@@ -8400,30 +8324,30 @@
         <v>450</v>
       </c>
     </row>
-    <row r="39" ht="17.4" spans="1:10">
+    <row r="39" ht="18" spans="1:10">
       <c r="A39" s="15" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D39" s="15">
         <v>1</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F39" s="15">
         <v>0</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I39" s="15">
         <v>1</v>
@@ -8432,30 +8356,30 @@
         <v>460</v>
       </c>
     </row>
-    <row r="40" ht="17.4" spans="1:10">
+    <row r="40" ht="18" spans="1:10">
       <c r="A40" s="15" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D40" s="15">
         <v>1</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F40" s="15">
         <v>0</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I40" s="15">
         <v>1</v>
@@ -8464,30 +8388,30 @@
         <v>470</v>
       </c>
     </row>
-    <row r="41" ht="17.4" spans="1:10">
+    <row r="41" ht="18" spans="1:10">
       <c r="A41" s="15" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D41" s="15">
         <v>1</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F41" s="15">
         <v>0</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I41" s="15">
         <v>1</v>
@@ -8496,30 +8420,30 @@
         <v>480</v>
       </c>
     </row>
-    <row r="42" ht="17.4" spans="1:10">
+    <row r="42" ht="18" spans="1:10">
       <c r="A42" s="15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D42" s="15">
         <v>1</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F42" s="15">
         <v>0</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I42" s="15">
         <v>1</v>
@@ -8528,30 +8452,30 @@
         <v>490</v>
       </c>
     </row>
-    <row r="43" ht="17.4" spans="1:10">
+    <row r="43" ht="18" spans="1:10">
       <c r="A43" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D43" s="15">
         <v>1</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F43" s="15">
         <v>0</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I43" s="15">
         <v>1</v>
@@ -8560,30 +8484,30 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" ht="17.4" spans="1:10">
+    <row r="44" ht="18" spans="1:10">
       <c r="A44" s="15" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D44" s="15">
         <v>1</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F44" s="15">
         <v>0</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I44" s="15">
         <v>1</v>
@@ -8592,30 +8516,30 @@
         <v>510</v>
       </c>
     </row>
-    <row r="45" ht="17.4" spans="1:10">
+    <row r="45" ht="18" spans="1:10">
       <c r="A45" s="15" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D45" s="15">
         <v>1</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F45" s="15">
         <v>0</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I45" s="15">
         <v>1</v>
@@ -8624,30 +8548,30 @@
         <v>520</v>
       </c>
     </row>
-    <row r="46" ht="17.4" spans="1:10">
+    <row r="46" ht="18" spans="1:10">
       <c r="A46" s="15" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D46" s="15">
         <v>1</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F46" s="15">
         <v>0</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I46" s="15">
         <v>1</v>
@@ -8656,30 +8580,30 @@
         <v>530</v>
       </c>
     </row>
-    <row r="47" ht="17.4" spans="1:10">
+    <row r="47" ht="18" spans="1:10">
       <c r="A47" s="15" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D47" s="15">
         <v>1</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F47" s="15">
         <v>0</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I47" s="15">
         <v>1</v>
@@ -8688,30 +8612,30 @@
         <v>540</v>
       </c>
     </row>
-    <row r="48" ht="17.4" spans="1:10">
+    <row r="48" ht="18" spans="1:10">
       <c r="A48" s="15" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D48" s="15">
         <v>1</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F48" s="15">
         <v>0</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I48" s="15">
         <v>1</v>
@@ -8720,30 +8644,30 @@
         <v>550</v>
       </c>
     </row>
-    <row r="49" ht="17.4" spans="1:10">
+    <row r="49" ht="18" spans="1:10">
       <c r="A49" s="15" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D49" s="15">
         <v>1</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F49" s="15">
         <v>0</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I49" s="15">
         <v>1</v>
@@ -8752,30 +8676,30 @@
         <v>560</v>
       </c>
     </row>
-    <row r="50" ht="17.4" spans="1:10">
+    <row r="50" ht="18" spans="1:10">
       <c r="A50" s="15" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D50" s="15">
         <v>1</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F50" s="15">
         <v>0</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I50" s="15">
         <v>1</v>
@@ -8784,30 +8708,30 @@
         <v>570</v>
       </c>
     </row>
-    <row r="51" ht="17.4" spans="1:10">
+    <row r="51" ht="18" spans="1:10">
       <c r="A51" s="15" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D51" s="15">
         <v>1</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F51" s="15">
         <v>0</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I51" s="15">
         <v>1</v>
@@ -8816,30 +8740,30 @@
         <v>580</v>
       </c>
     </row>
-    <row r="52" ht="17.4" spans="1:10">
+    <row r="52" ht="18" spans="1:10">
       <c r="A52" s="15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D52" s="15">
         <v>1</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F52" s="15">
         <v>0</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I52" s="15">
         <v>1</v>
@@ -8848,30 +8772,30 @@
         <v>590</v>
       </c>
     </row>
-    <row r="53" ht="17.4" spans="1:10">
+    <row r="53" ht="18" spans="1:10">
       <c r="A53" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D53" s="15">
         <v>1</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F53" s="15">
         <v>0</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I53" s="15">
         <v>1</v>
@@ -8893,7 +8817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Q3"/>
@@ -8902,22 +8826,22 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3796296296296" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.3833333333333" defaultRowHeight="20.1" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="20.1296296296296" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.3796296296296" style="2"/>
-    <col min="3" max="16384" width="11.3796296296296" style="3"/>
+    <col min="1" max="1" width="20.1333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.3833333333333" style="2"/>
+    <col min="3" max="16384" width="11.3833333333333" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -8936,57 +8860,57 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
